--- a/order-backend/order-table-meta.xlsx
+++ b/order-backend/order-table-meta.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userfiles\privSpace\photography-order\order-backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3AB1C7-E25B-4546-858C-29280DE24B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,81 +25,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="147">
-  <si>
-    <t xml:space="preserve">所在库</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">表名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">表说明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">序号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字段名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字段类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字段长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非空</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字段说明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sql-comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">localhost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photo_order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">订单基础信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOT NULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">订单编号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预定时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nickname</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="150">
+  <si>
+    <t>所在库</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>表名</t>
+  </si>
+  <si>
+    <t>表说明</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>字段长度</t>
+  </si>
+  <si>
+    <t>非空</t>
+  </si>
+  <si>
+    <t>字段说明</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>sql-comment</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>localhost</t>
+  </si>
+  <si>
+    <t>photo_order</t>
+  </si>
+  <si>
+    <t>order_info</t>
+  </si>
+  <si>
+    <t>订单基础信息</t>
+  </si>
+  <si>
+    <t>order_num</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>order_time</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>预定时间</t>
+  </si>
+  <si>
+    <t>nickname</t>
   </si>
   <si>
     <r>
@@ -105,7 +110,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">昵称</t>
+      <t>昵称</t>
     </r>
     <r>
       <rPr>
@@ -115,7 +120,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -125,32 +130,32 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">姓名</t>
+      <t>姓名</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">member_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会员编号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msisdn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预定人手机号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wechat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预定人微信</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qq_number</t>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>int8</t>
+  </si>
+  <si>
+    <t>会员编号</t>
+  </si>
+  <si>
+    <t>msisdn</t>
+  </si>
+  <si>
+    <t>预定人手机号</t>
+  </si>
+  <si>
+    <t>wechat</t>
+  </si>
+  <si>
+    <t>预定人微信</t>
+  </si>
+  <si>
+    <t>qq_number</t>
   </si>
   <si>
     <r>
@@ -161,7 +166,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">预定人</t>
+      <t>预定人</t>
     </r>
     <r>
       <rPr>
@@ -171,146 +176,146 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">QQ</t>
+      <t>QQ</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">xiao_hong_shu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预定人小红书</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">邮箱地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预定人性别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deposit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">float8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balance_to_pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">应付尾款</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">订单总额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">package_remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预定套餐情况</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appointment_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预约拍照时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topic_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预约主题备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balance_payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已收尾款</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balance_payment_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">尾款收入时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expenditure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">额外支出费用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expenditure_remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">额外支出备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">合计收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finished_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFAULT 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">办结标记</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delete_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作废标记</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delete_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作废时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_update_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上次操作时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_update_user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bigint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上次操作人员</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会员信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bigserial</t>
+    <t>xiao_hong_shu</t>
+  </si>
+  <si>
+    <t>预定人小红书</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>邮箱地址</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>预定人性别</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>float8</t>
+  </si>
+  <si>
+    <t>定金</t>
+  </si>
+  <si>
+    <t>balance_to_pay</t>
+  </si>
+  <si>
+    <t>应付尾款</t>
+  </si>
+  <si>
+    <t>total_price</t>
+  </si>
+  <si>
+    <t>订单总额</t>
+  </si>
+  <si>
+    <t>package_remarks</t>
+  </si>
+  <si>
+    <t>预定套餐情况</t>
+  </si>
+  <si>
+    <t>appointment_time</t>
+  </si>
+  <si>
+    <t>预约拍照时间</t>
+  </si>
+  <si>
+    <t>topic_detail</t>
+  </si>
+  <si>
+    <t>预约主题备注</t>
+  </si>
+  <si>
+    <t>balance_payment</t>
+  </si>
+  <si>
+    <t>已收尾款</t>
+  </si>
+  <si>
+    <t>balance_payment_time</t>
+  </si>
+  <si>
+    <t>尾款收入时间</t>
+  </si>
+  <si>
+    <t>expenditure</t>
+  </si>
+  <si>
+    <t>额外支出费用</t>
+  </si>
+  <si>
+    <t>expenditure_remarks</t>
+  </si>
+  <si>
+    <t>额外支出备注</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>合计收入</t>
+  </si>
+  <si>
+    <t>finished_tag</t>
+  </si>
+  <si>
+    <t>int2</t>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
+  </si>
+  <si>
+    <t>办结标记</t>
+  </si>
+  <si>
+    <t>delete_tag</t>
+  </si>
+  <si>
+    <t>int4</t>
+  </si>
+  <si>
+    <t>作废标记</t>
+  </si>
+  <si>
+    <t>delete_time</t>
+  </si>
+  <si>
+    <t>作废时间</t>
+  </si>
+  <si>
+    <t>last_update_time</t>
+  </si>
+  <si>
+    <t>上次操作时间</t>
+  </si>
+  <si>
+    <t>last_update_user</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>上次操作人员</t>
+  </si>
+  <si>
+    <t>member_info</t>
+  </si>
+  <si>
+    <t>会员信息</t>
+  </si>
+  <si>
+    <t>bigserial</t>
   </si>
   <si>
     <r>
@@ -321,7 +326,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">预定人昵称</t>
+      <t>预定人昵称</t>
     </r>
     <r>
       <rPr>
@@ -331,7 +336,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -341,11 +346,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">姓名</t>
+      <t>姓名</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">预定人微信号</t>
+    <t>预定人微信号</t>
   </si>
   <si>
     <r>
@@ -356,7 +361,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">预定人</t>
+      <t>预定人</t>
     </r>
     <r>
       <rPr>
@@ -366,7 +371,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">QQ</t>
+      <t>QQ</t>
     </r>
     <r>
       <rPr>
@@ -376,41 +381,41 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">号</t>
+      <t>号</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">小红书账号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预定人邮箱地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">姓名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">性别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birthday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">register_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第一次预定时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remarks</t>
+    <t>小红书账号</t>
+  </si>
+  <si>
+    <t>预定人邮箱地址</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>第一次预定时间</t>
+  </si>
+  <si>
+    <t>remarks</t>
   </si>
   <si>
     <r>
@@ -421,7 +426,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">备注信息</t>
+      <t>备注信息</t>
     </r>
     <r>
       <rPr>
@@ -431,7 +436,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -441,7 +446,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">偏好、风格</t>
+      <t>偏好、风格</t>
     </r>
     <r>
       <rPr>
@@ -451,146 +456,146 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">删除标识</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stuff_account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">员工信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">员工标识</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">账号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">密码噪声</t>
-  </si>
-  <si>
-    <t xml:space="preserve">花名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手机号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">身份识别码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">头像</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电子邮箱地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">access</t>
-  </si>
-  <si>
-    <t xml:space="preserve">access:admin/normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">创建日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">combo_info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">套餐信息表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">套餐编码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">套餐名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">套餐价格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">套餐描述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">包含套数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_info_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">订单套餐明细</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">combo_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">off_price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">优惠金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appointment_info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预约信息表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_info_detail_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">订单套餐明细编码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pic_tag</t>
+    <t>删除标识</t>
+  </si>
+  <si>
+    <t>stuff_account</t>
+  </si>
+  <si>
+    <t>员工信息</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>员工标识</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>密码噪声</t>
+  </si>
+  <si>
+    <t>花名</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>identification</t>
+  </si>
+  <si>
+    <t>身份识别码</t>
+  </si>
+  <si>
+    <t>user_status</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>电子邮箱地址</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>access:admin/normal</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>创建日期</t>
+  </si>
+  <si>
+    <t>combo_info</t>
+  </si>
+  <si>
+    <t>套餐信息表</t>
+  </si>
+  <si>
+    <t>套餐编码</t>
+  </si>
+  <si>
+    <t>套餐名称</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>套餐价格</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>套餐描述</t>
+  </si>
+  <si>
+    <t>num_set</t>
+  </si>
+  <si>
+    <t>包含套数</t>
+  </si>
+  <si>
+    <t>order_info_detail</t>
+  </si>
+  <si>
+    <t>订单套餐明细</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>combo_id</t>
+  </si>
+  <si>
+    <t>off_price</t>
+  </si>
+  <si>
+    <t>优惠金额</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>appointment_info</t>
+  </si>
+  <si>
+    <t>预约信息表</t>
+  </si>
+  <si>
+    <t>order_info_detail_id</t>
+  </si>
+  <si>
+    <t>订单套餐明细编码</t>
+  </si>
+  <si>
+    <t>pic_tag</t>
   </si>
   <si>
     <r>
@@ -600,7 +605,7 @@
         <rFont val="DejaVu Sans Mono"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">返图标记：</t>
+      <t>返图标记：</t>
     </r>
     <r>
       <rPr>
@@ -609,7 +614,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -618,7 +623,7 @@
         <rFont val="DejaVu Sans Mono"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">未拍摄，</t>
+      <t>未拍摄，</t>
     </r>
     <r>
       <rPr>
@@ -627,7 +632,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -636,7 +641,7 @@
         <rFont val="DejaVu Sans Mono"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">已拍摄，</t>
+      <t>已拍摄，</t>
     </r>
     <r>
       <rPr>
@@ -645,7 +650,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">2.</t>
+      <t>2.</t>
     </r>
     <r>
       <rPr>
@@ -654,7 +659,7 @@
         <rFont val="DejaVu Sans Mono"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">已返原图，</t>
+      <t>已返原图，</t>
     </r>
     <r>
       <rPr>
@@ -663,7 +668,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">3.</t>
+      <t>3.</t>
     </r>
     <r>
       <rPr>
@@ -672,31 +677,39 @@
         <rFont val="DejaVu Sans Mono"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">已返精修</t>
+      <t>已返精修</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">pic_url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">本地图片路径备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数据更新时间</t>
+    <t>pic_url</t>
+  </si>
+  <si>
+    <t>本地图片路径备注</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>数据更新时间</t>
+  </si>
+  <si>
+    <t>PascalCase</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息备注</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -705,22 +718,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
@@ -728,7 +726,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
@@ -760,6 +758,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -776,111 +780,65 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -939,39 +897,350 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J76" activeCellId="0" sqref="J76"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="31.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="61.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="32.25"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.625" customWidth="1"/>
+    <col min="12" max="12" width="61.375" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.25" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,10 +1278,13 @@
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:14" ht="28.5">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1025,7 +1297,7 @@
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1034,7 +1306,7 @@
       <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="4">
         <v>200</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -1043,22 +1315,26 @@
       <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="0" t="str">
-        <f aca="false">F2&amp;" "&amp;G2&amp;IF(H2&lt;&gt;"","("&amp;H2&amp;") "&amp;I2,"")&amp;","</f>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K33" si="0">F2&amp;" "&amp;G2&amp;IF(H2&lt;&gt;"","("&amp;H2&amp;") "&amp;I2,"")&amp;","</f>
         <v>order_num varchar(200) NOT NULL,</v>
       </c>
-      <c r="L2" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C2&amp;"."&amp;F2&amp;" is '"&amp;J2&amp;"';"</f>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L33" si="1">"comment on column "&amp;C2&amp;"."&amp;F2&amp;" is '"&amp;J2&amp;"';"</f>
         <v>comment on column order_info.order_num is '订单编号';</v>
       </c>
-      <c r="M2" s="6" t="str">
-        <f aca="false">"//"&amp;J2&amp;"
-private "&amp;IF(G2="varchar2","String",IF(G2="varchar","String",IF(G2="number","Double",IF(G2="float8","Double",IF(G2="int2","Integer",IF(G2="int4","Integer",IF(G2="int8","Integer",IF(G2="bigint","Long",IF(G2="bigserial","Long",IF(G2="timestamp","Date",IF(G2="Date","Date",G2)))))))))))&amp;" "&amp;LOWER(F2)&amp;";"</f>
-        <v>//订单编号
-private String order_num;</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" t="str">
+        <f>LEFT(F2,1)&amp;MID(SUBSTITUTE(PROPER(F2),"_",""),2,100)</f>
+        <v>orderNum</v>
+      </c>
+      <c r="N2" s="6" t="str">
+        <f>"/**"&amp;J2&amp;"**/
+private "&amp;IF(G2="varchar2","String",IF(G2="varchar","String",IF(G2="number","Double",IF(G2="float8","Double",IF(G2="int2","Integer",IF(G2="int4","Integer",IF(G2="int8","Integer",IF(G2="bigint","Long",IF(G2="bigserial","Long",IF(G2="timestamp","Date",IF(G2="Date","Date",G2)))))))))))&amp;" "&amp;M2&amp;";"</f>
+        <v>/**订单编号**/
+private String orderNum;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="28.5">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1071,7 +1347,7 @@
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1085,22 +1361,26 @@
       <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="0" t="str">
-        <f aca="false">F3&amp;" "&amp;G3&amp;IF(H3&lt;&gt;"","("&amp;H3&amp;") "&amp;I3,"")&amp;","</f>
+      <c r="K3" t="str">
+        <f t="shared" si="0"/>
         <v>order_time timestamp,</v>
       </c>
-      <c r="L3" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C3&amp;"."&amp;F3&amp;" is '"&amp;J3&amp;"';"</f>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.order_time is '预定时间';</v>
       </c>
-      <c r="M3" s="0" t="str">
-        <f aca="false">"//"&amp;J3&amp;"
-private "&amp;IF(G3="varchar2","String",IF(G3="varchar","String",IF(G3="number","Double",IF(G3="float8","Double",IF(G3="int2","Integer",IF(G3="int4","Integer",IF(G3="int8","Integer",IF(G3="bigint","Long",IF(G3="bigserial","Long",IF(G3="timestamp","Date",IF(G3="Date","Date",G3)))))))))))&amp;" "&amp;LOWER(F3)&amp;";"</f>
-        <v>//预定时间
-private Date order_time;</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M66" si="2">LEFT(F3,1)&amp;MID(SUBSTITUTE(PROPER(F3),"_",""),2,100)</f>
+        <v>orderTime</v>
+      </c>
+      <c r="N3" s="6" t="str">
+        <f t="shared" ref="N3:N66" si="3">"/**"&amp;J3&amp;"**/
+private "&amp;IF(G3="varchar2","String",IF(G3="varchar","String",IF(G3="number","Double",IF(G3="float8","Double",IF(G3="int2","Integer",IF(G3="int4","Integer",IF(G3="int8","Integer",IF(G3="bigint","Long",IF(G3="bigserial","Long",IF(G3="timestamp","Date",IF(G3="Date","Date",G3)))))))))))&amp;" "&amp;M3&amp;";"</f>
+        <v>/**预定时间**/
+private Date orderTime;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.5">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1113,7 +1393,7 @@
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="4">
         <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1122,7 +1402,7 @@
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="4">
         <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -1131,22 +1411,25 @@
       <c r="J4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="0" t="str">
-        <f aca="false">F4&amp;" "&amp;G4&amp;IF(H4&lt;&gt;"","("&amp;H4&amp;") "&amp;I4,"")&amp;","</f>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
         <v>nickname varchar(20) NOT NULL,</v>
       </c>
-      <c r="L4" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C4&amp;"."&amp;F4&amp;" is '"&amp;J4&amp;"';"</f>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.nickname is '昵称/姓名';</v>
       </c>
-      <c r="M4" s="0" t="str">
-        <f aca="false">"//"&amp;J4&amp;"
-private "&amp;IF(G4="varchar2","String",IF(G4="varchar","String",IF(G4="number","Double",IF(G4="float8","Double",IF(G4="int2","Integer",IF(G4="int4","Integer",IF(G4="int8","Integer",IF(G4="bigint","Long",IF(G4="bigserial","Long",IF(G4="timestamp","Date",IF(G4="Date","Date",G4)))))))))))&amp;" "&amp;LOWER(F4)&amp;";"</f>
-        <v>//昵称/姓名
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>nickname</v>
+      </c>
+      <c r="N4" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**昵称/姓名**/
 private String nickname;</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:14" ht="28.5">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1159,7 +1442,7 @@
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="4">
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1173,22 +1456,25 @@
       <c r="J5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="0" t="str">
-        <f aca="false">F5&amp;" "&amp;G5&amp;IF(H5&lt;&gt;"","("&amp;H5&amp;") "&amp;I5,"")&amp;","</f>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
         <v>member_id int8,</v>
       </c>
-      <c r="L5" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C5&amp;"."&amp;F5&amp;" is '"&amp;J5&amp;"';"</f>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.member_id is '会员编号';</v>
       </c>
-      <c r="M5" s="0" t="str">
-        <f aca="false">"//"&amp;J5&amp;"
-private "&amp;IF(G5="varchar2","String",IF(G5="varchar","String",IF(G5="number","Double",IF(G5="float8","Double",IF(G5="int2","Integer",IF(G5="int4","Integer",IF(G5="int8","Integer",IF(G5="bigint","Long",IF(G5="bigserial","Long",IF(G5="timestamp","Date",IF(G5="Date","Date",G5)))))))))))&amp;" "&amp;LOWER(F5)&amp;";"</f>
-        <v>//会员编号
-private Integer member_id;</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>memberId</v>
+      </c>
+      <c r="N5" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**会员编号**/
+private Integer memberId;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="28.5">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1201,7 +1487,7 @@
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="4">
         <v>5</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1210,29 +1496,32 @@
       <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="4">
         <v>30</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="0" t="str">
-        <f aca="false">F6&amp;" "&amp;G6&amp;IF(H6&lt;&gt;"","("&amp;H6&amp;") "&amp;I6,"")&amp;","</f>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
         <v>msisdn varchar(30) ,</v>
       </c>
-      <c r="L6" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C6&amp;"."&amp;F6&amp;" is '"&amp;J6&amp;"';"</f>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.msisdn is '预定人手机号';</v>
       </c>
-      <c r="M6" s="0" t="str">
-        <f aca="false">"//"&amp;J6&amp;"
-private "&amp;IF(G6="varchar2","String",IF(G6="varchar","String",IF(G6="number","Double",IF(G6="float8","Double",IF(G6="int2","Integer",IF(G6="int4","Integer",IF(G6="int8","Integer",IF(G6="bigint","Long",IF(G6="bigserial","Long",IF(G6="timestamp","Date",IF(G6="Date","Date",G6)))))))))))&amp;" "&amp;LOWER(F6)&amp;";"</f>
-        <v>//预定人手机号
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>msisdn</v>
+      </c>
+      <c r="N6" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**预定人手机号**/
 private String msisdn;</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:14" ht="28.5">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1245,7 +1534,7 @@
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="4">
         <v>6</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -1254,29 +1543,32 @@
       <c r="G7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="4">
         <v>30</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="0" t="str">
-        <f aca="false">F7&amp;" "&amp;G7&amp;IF(H7&lt;&gt;"","("&amp;H7&amp;") "&amp;I7,"")&amp;","</f>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
         <v>wechat varchar(30) ,</v>
       </c>
-      <c r="L7" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C7&amp;"."&amp;F7&amp;" is '"&amp;J7&amp;"';"</f>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.wechat is '预定人微信';</v>
       </c>
-      <c r="M7" s="0" t="str">
-        <f aca="false">"//"&amp;J7&amp;"
-private "&amp;IF(G7="varchar2","String",IF(G7="varchar","String",IF(G7="number","Double",IF(G7="float8","Double",IF(G7="int2","Integer",IF(G7="int4","Integer",IF(G7="int8","Integer",IF(G7="bigint","Long",IF(G7="bigserial","Long",IF(G7="timestamp","Date",IF(G7="Date","Date",G7)))))))))))&amp;" "&amp;LOWER(F7)&amp;";"</f>
-        <v>//预定人微信
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>wechat</v>
+      </c>
+      <c r="N7" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**预定人微信**/
 private String wechat;</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:14" ht="28.5">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1289,7 +1581,7 @@
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="4">
         <v>7</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1298,29 +1590,32 @@
       <c r="G8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="4">
         <v>30</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="0" t="str">
-        <f aca="false">F8&amp;" "&amp;G8&amp;IF(H8&lt;&gt;"","("&amp;H8&amp;") "&amp;I8,"")&amp;","</f>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
         <v>qq_number varchar(30) ,</v>
       </c>
-      <c r="L8" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C8&amp;"."&amp;F8&amp;" is '"&amp;J8&amp;"';"</f>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.qq_number is '预定人QQ';</v>
       </c>
-      <c r="M8" s="0" t="str">
-        <f aca="false">"//"&amp;J8&amp;"
-private "&amp;IF(G8="varchar2","String",IF(G8="varchar","String",IF(G8="number","Double",IF(G8="float8","Double",IF(G8="int2","Integer",IF(G8="int4","Integer",IF(G8="int8","Integer",IF(G8="bigint","Long",IF(G8="bigserial","Long",IF(G8="timestamp","Date",IF(G8="Date","Date",G8)))))))))))&amp;" "&amp;LOWER(F8)&amp;";"</f>
-        <v>//预定人QQ
-private String qq_number;</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>qqNumber</v>
+      </c>
+      <c r="N8" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**预定人QQ**/
+private String qqNumber;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="28.5">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1333,7 +1628,7 @@
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="4">
         <v>8</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1342,29 +1637,32 @@
       <c r="G9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="4">
         <v>30</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="0" t="str">
-        <f aca="false">F9&amp;" "&amp;G9&amp;IF(H9&lt;&gt;"","("&amp;H9&amp;") "&amp;I9,"")&amp;","</f>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
         <v>xiao_hong_shu varchar(30) ,</v>
       </c>
-      <c r="L9" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C9&amp;"."&amp;F9&amp;" is '"&amp;J9&amp;"';"</f>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.xiao_hong_shu is '预定人小红书';</v>
       </c>
-      <c r="M9" s="0" t="str">
-        <f aca="false">"//"&amp;J9&amp;"
-private "&amp;IF(G9="varchar2","String",IF(G9="varchar","String",IF(G9="number","Double",IF(G9="float8","Double",IF(G9="int2","Integer",IF(G9="int4","Integer",IF(G9="int8","Integer",IF(G9="bigint","Long",IF(G9="bigserial","Long",IF(G9="timestamp","Date",IF(G9="Date","Date",G9)))))))))))&amp;" "&amp;LOWER(F9)&amp;";"</f>
-        <v>//预定人小红书
-private String xiao_hong_shu;</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>xiaoHongShu</v>
+      </c>
+      <c r="N9" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**预定人小红书**/
+private String xiaoHongShu;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="28.5">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1377,7 +1675,7 @@
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="4">
         <v>9</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -1386,29 +1684,32 @@
       <c r="G10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="4">
         <v>100</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="0" t="str">
-        <f aca="false">F10&amp;" "&amp;G10&amp;IF(H10&lt;&gt;"","("&amp;H10&amp;") "&amp;I10,"")&amp;","</f>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
         <v>email varchar(100) ,</v>
       </c>
-      <c r="L10" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C10&amp;"."&amp;F10&amp;" is '"&amp;J10&amp;"';"</f>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.email is '邮箱地址';</v>
       </c>
-      <c r="M10" s="0" t="str">
-        <f aca="false">"//"&amp;J10&amp;"
-private "&amp;IF(G10="varchar2","String",IF(G10="varchar","String",IF(G10="number","Double",IF(G10="float8","Double",IF(G10="int2","Integer",IF(G10="int4","Integer",IF(G10="int8","Integer",IF(G10="bigint","Long",IF(G10="bigserial","Long",IF(G10="timestamp","Date",IF(G10="Date","Date",G10)))))))))))&amp;" "&amp;LOWER(F10)&amp;";"</f>
-        <v>//邮箱地址
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>email</v>
+      </c>
+      <c r="N10" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**邮箱地址**/
 private String email;</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:14" ht="28.5">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1421,7 +1722,7 @@
       <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="4">
         <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -1430,29 +1731,32 @@
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="4">
         <v>6</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="0" t="str">
-        <f aca="false">F11&amp;" "&amp;G11&amp;IF(H11&lt;&gt;"","("&amp;H11&amp;") "&amp;I11,"")&amp;","</f>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
         <v>gender varchar(6) ,</v>
       </c>
-      <c r="L11" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C11&amp;"."&amp;F11&amp;" is '"&amp;J11&amp;"';"</f>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.gender is '预定人性别';</v>
       </c>
-      <c r="M11" s="0" t="str">
-        <f aca="false">"//"&amp;J11&amp;"
-private "&amp;IF(G11="varchar2","String",IF(G11="varchar","String",IF(G11="number","Double",IF(G11="float8","Double",IF(G11="int2","Integer",IF(G11="int4","Integer",IF(G11="int8","Integer",IF(G11="bigint","Long",IF(G11="bigserial","Long",IF(G11="timestamp","Date",IF(G11="Date","Date",G11)))))))))))&amp;" "&amp;LOWER(F11)&amp;";"</f>
-        <v>//预定人性别
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>gender</v>
+      </c>
+      <c r="N11" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**预定人性别**/
 private String gender;</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:14" ht="28.5">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1465,7 +1769,7 @@
       <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="4">
         <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1479,22 +1783,25 @@
       <c r="J12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="0" t="str">
-        <f aca="false">F12&amp;" "&amp;G12&amp;IF(H12&lt;&gt;"","("&amp;H12&amp;") "&amp;I12,"")&amp;","</f>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
         <v>deposit float8,</v>
       </c>
-      <c r="L12" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C12&amp;"."&amp;F12&amp;" is '"&amp;J12&amp;"';"</f>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.deposit is '定金';</v>
       </c>
-      <c r="M12" s="0" t="str">
-        <f aca="false">"//"&amp;J12&amp;"
-private "&amp;IF(G12="varchar2","String",IF(G12="varchar","String",IF(G12="number","Double",IF(G12="float8","Double",IF(G12="int2","Integer",IF(G12="int4","Integer",IF(G12="int8","Integer",IF(G12="bigint","Long",IF(G12="bigserial","Long",IF(G12="timestamp","Date",IF(G12="Date","Date",G12)))))))))))&amp;" "&amp;LOWER(F12)&amp;";"</f>
-        <v>//定金
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>deposit</v>
+      </c>
+      <c r="N12" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**定金**/
 private Double deposit;</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:14" ht="28.5">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1507,7 +1814,7 @@
       <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="4">
         <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -1521,22 +1828,25 @@
       <c r="J13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="0" t="str">
-        <f aca="false">F13&amp;" "&amp;G13&amp;IF(H13&lt;&gt;"","("&amp;H13&amp;") "&amp;I13,"")&amp;","</f>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
         <v>balance_to_pay float8,</v>
       </c>
-      <c r="L13" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C13&amp;"."&amp;F13&amp;" is '"&amp;J13&amp;"';"</f>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.balance_to_pay is '应付尾款';</v>
       </c>
-      <c r="M13" s="0" t="str">
-        <f aca="false">"//"&amp;J13&amp;"
-private "&amp;IF(G13="varchar2","String",IF(G13="varchar","String",IF(G13="number","Double",IF(G13="float8","Double",IF(G13="int2","Integer",IF(G13="int4","Integer",IF(G13="int8","Integer",IF(G13="bigint","Long",IF(G13="bigserial","Long",IF(G13="timestamp","Date",IF(G13="Date","Date",G13)))))))))))&amp;" "&amp;LOWER(F13)&amp;";"</f>
-        <v>//应付尾款
-private Double balance_to_pay;</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v>balanceToPay</v>
+      </c>
+      <c r="N13" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**应付尾款**/
+private Double balanceToPay;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="28.5">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1549,7 +1859,7 @@
       <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="4">
         <v>13</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -1563,22 +1873,25 @@
       <c r="J14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="0" t="str">
-        <f aca="false">F14&amp;" "&amp;G14&amp;IF(H14&lt;&gt;"","("&amp;H14&amp;") "&amp;I14,"")&amp;","</f>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
         <v>total_price float8,</v>
       </c>
-      <c r="L14" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C14&amp;"."&amp;F14&amp;" is '"&amp;J14&amp;"';"</f>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.total_price is '订单总额';</v>
       </c>
-      <c r="M14" s="0" t="str">
-        <f aca="false">"//"&amp;J14&amp;"
-private "&amp;IF(G14="varchar2","String",IF(G14="varchar","String",IF(G14="number","Double",IF(G14="float8","Double",IF(G14="int2","Integer",IF(G14="int4","Integer",IF(G14="int8","Integer",IF(G14="bigint","Long",IF(G14="bigserial","Long",IF(G14="timestamp","Date",IF(G14="Date","Date",G14)))))))))))&amp;" "&amp;LOWER(F14)&amp;";"</f>
-        <v>//订单总额
-private Double total_price;</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>totalPrice</v>
+      </c>
+      <c r="N14" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**订单总额**/
+private Double totalPrice;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="28.5">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1591,7 +1904,7 @@
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="4">
         <v>14</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -1600,29 +1913,32 @@
       <c r="G15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="4">
         <v>255</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="0" t="str">
-        <f aca="false">F15&amp;" "&amp;G15&amp;IF(H15&lt;&gt;"","("&amp;H15&amp;") "&amp;I15,"")&amp;","</f>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
         <v>package_remarks varchar(255) ,</v>
       </c>
-      <c r="L15" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C15&amp;"."&amp;F15&amp;" is '"&amp;J15&amp;"';"</f>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.package_remarks is '预定套餐情况';</v>
       </c>
-      <c r="M15" s="0" t="str">
-        <f aca="false">"//"&amp;J15&amp;"
-private "&amp;IF(G15="varchar2","String",IF(G15="varchar","String",IF(G15="number","Double",IF(G15="float8","Double",IF(G15="int2","Integer",IF(G15="int4","Integer",IF(G15="int8","Integer",IF(G15="bigint","Long",IF(G15="bigserial","Long",IF(G15="timestamp","Date",IF(G15="Date","Date",G15)))))))))))&amp;" "&amp;LOWER(F15)&amp;";"</f>
-        <v>//预定套餐情况
-private String package_remarks;</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>packageRemarks</v>
+      </c>
+      <c r="N15" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**预定套餐情况**/
+private String packageRemarks;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="28.5">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -1635,7 +1951,7 @@
       <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="4">
         <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1649,22 +1965,25 @@
       <c r="J16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="0" t="str">
-        <f aca="false">F16&amp;" "&amp;G16&amp;IF(H16&lt;&gt;"","("&amp;H16&amp;") "&amp;I16,"")&amp;","</f>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
         <v>appointment_time timestamp,</v>
       </c>
-      <c r="L16" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C16&amp;"."&amp;F16&amp;" is '"&amp;J16&amp;"';"</f>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.appointment_time is '预约拍照时间';</v>
       </c>
-      <c r="M16" s="0" t="str">
-        <f aca="false">"//"&amp;J16&amp;"
-private "&amp;IF(G16="varchar2","String",IF(G16="varchar","String",IF(G16="number","Double",IF(G16="float8","Double",IF(G16="int2","Integer",IF(G16="int4","Integer",IF(G16="int8","Integer",IF(G16="bigint","Long",IF(G16="bigserial","Long",IF(G16="timestamp","Date",IF(G16="Date","Date",G16)))))))))))&amp;" "&amp;LOWER(F16)&amp;";"</f>
-        <v>//预约拍照时间
-private Date appointment_time;</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>appointmentTime</v>
+      </c>
+      <c r="N16" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**预约拍照时间**/
+private Date appointmentTime;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="28.5">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -1677,7 +1996,7 @@
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="4">
         <v>16</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -1686,29 +2005,32 @@
       <c r="G17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="4">
         <v>255</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="0" t="str">
-        <f aca="false">F17&amp;" "&amp;G17&amp;IF(H17&lt;&gt;"","("&amp;H17&amp;") "&amp;I17,"")&amp;","</f>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
         <v>topic_detail varchar(255) ,</v>
       </c>
-      <c r="L17" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C17&amp;"."&amp;F17&amp;" is '"&amp;J17&amp;"';"</f>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.topic_detail is '预约主题备注';</v>
       </c>
-      <c r="M17" s="0" t="str">
-        <f aca="false">"//"&amp;J17&amp;"
-private "&amp;IF(G17="varchar2","String",IF(G17="varchar","String",IF(G17="number","Double",IF(G17="float8","Double",IF(G17="int2","Integer",IF(G17="int4","Integer",IF(G17="int8","Integer",IF(G17="bigint","Long",IF(G17="bigserial","Long",IF(G17="timestamp","Date",IF(G17="Date","Date",G17)))))))))))&amp;" "&amp;LOWER(F17)&amp;";"</f>
-        <v>//预约主题备注
-private String topic_detail;</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>topicDetail</v>
+      </c>
+      <c r="N17" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**预约主题备注**/
+private String topicDetail;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="28.5">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1721,7 +2043,7 @@
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="4">
         <v>17</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -1735,22 +2057,25 @@
       <c r="J18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="0" t="str">
-        <f aca="false">F18&amp;" "&amp;G18&amp;IF(H18&lt;&gt;"","("&amp;H18&amp;") "&amp;I18,"")&amp;","</f>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
         <v>balance_payment float8,</v>
       </c>
-      <c r="L18" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C18&amp;"."&amp;F18&amp;" is '"&amp;J18&amp;"';"</f>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.balance_payment is '已收尾款';</v>
       </c>
-      <c r="M18" s="0" t="str">
-        <f aca="false">"//"&amp;J18&amp;"
-private "&amp;IF(G18="varchar2","String",IF(G18="varchar","String",IF(G18="number","Double",IF(G18="float8","Double",IF(G18="int2","Integer",IF(G18="int4","Integer",IF(G18="int8","Integer",IF(G18="bigint","Long",IF(G18="bigserial","Long",IF(G18="timestamp","Date",IF(G18="Date","Date",G18)))))))))))&amp;" "&amp;LOWER(F18)&amp;";"</f>
-        <v>//已收尾款
-private Double balance_payment;</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>balancePayment</v>
+      </c>
+      <c r="N18" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**已收尾款**/
+private Double balancePayment;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="28.5">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1763,7 +2088,7 @@
       <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="4">
         <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -1777,22 +2102,25 @@
       <c r="J19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="0" t="str">
-        <f aca="false">F19&amp;" "&amp;G19&amp;IF(H19&lt;&gt;"","("&amp;H19&amp;") "&amp;I19,"")&amp;","</f>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
         <v>balance_payment_time timestamp,</v>
       </c>
-      <c r="L19" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C19&amp;"."&amp;F19&amp;" is '"&amp;J19&amp;"';"</f>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.balance_payment_time is '尾款收入时间';</v>
       </c>
-      <c r="M19" s="0" t="str">
-        <f aca="false">"//"&amp;J19&amp;"
-private "&amp;IF(G19="varchar2","String",IF(G19="varchar","String",IF(G19="number","Double",IF(G19="float8","Double",IF(G19="int2","Integer",IF(G19="int4","Integer",IF(G19="int8","Integer",IF(G19="bigint","Long",IF(G19="bigserial","Long",IF(G19="timestamp","Date",IF(G19="Date","Date",G19)))))))))))&amp;" "&amp;LOWER(F19)&amp;";"</f>
-        <v>//尾款收入时间
-private Date balance_payment_time;</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>balancePaymentTime</v>
+      </c>
+      <c r="N19" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**尾款收入时间**/
+private Date balancePaymentTime;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="28.5">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -1805,7 +2133,7 @@
       <c r="D20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="4">
         <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -1819,22 +2147,25 @@
       <c r="J20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="0" t="str">
-        <f aca="false">F20&amp;" "&amp;G20&amp;IF(H20&lt;&gt;"","("&amp;H20&amp;") "&amp;I20,"")&amp;","</f>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
         <v>expenditure float8,</v>
       </c>
-      <c r="L20" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C20&amp;"."&amp;F20&amp;" is '"&amp;J20&amp;"';"</f>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.expenditure is '额外支出费用';</v>
       </c>
-      <c r="M20" s="0" t="str">
-        <f aca="false">"//"&amp;J20&amp;"
-private "&amp;IF(G20="varchar2","String",IF(G20="varchar","String",IF(G20="number","Double",IF(G20="float8","Double",IF(G20="int2","Integer",IF(G20="int4","Integer",IF(G20="int8","Integer",IF(G20="bigint","Long",IF(G20="bigserial","Long",IF(G20="timestamp","Date",IF(G20="Date","Date",G20)))))))))))&amp;" "&amp;LOWER(F20)&amp;";"</f>
-        <v>//额外支出费用
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>expenditure</v>
+      </c>
+      <c r="N20" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**额外支出费用**/
 private Double expenditure;</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:14" ht="28.5">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -1847,7 +2178,7 @@
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="4">
         <v>20</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -1856,29 +2187,32 @@
       <c r="G21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="H21" s="4">
         <v>255</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="0" t="str">
-        <f aca="false">F21&amp;" "&amp;G21&amp;IF(H21&lt;&gt;"","("&amp;H21&amp;") "&amp;I21,"")&amp;","</f>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
         <v>expenditure_remarks varchar(255) ,</v>
       </c>
-      <c r="L21" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C21&amp;"."&amp;F21&amp;" is '"&amp;J21&amp;"';"</f>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.expenditure_remarks is '额外支出备注';</v>
       </c>
-      <c r="M21" s="0" t="str">
-        <f aca="false">"//"&amp;J21&amp;"
-private "&amp;IF(G21="varchar2","String",IF(G21="varchar","String",IF(G21="number","Double",IF(G21="float8","Double",IF(G21="int2","Integer",IF(G21="int4","Integer",IF(G21="int8","Integer",IF(G21="bigint","Long",IF(G21="bigserial","Long",IF(G21="timestamp","Date",IF(G21="Date","Date",G21)))))))))))&amp;" "&amp;LOWER(F21)&amp;";"</f>
-        <v>//额外支出备注
-private String expenditure_remarks;</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>expenditureRemarks</v>
+      </c>
+      <c r="N21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**额外支出备注**/
+private String expenditureRemarks;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="28.5">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -1891,7 +2225,7 @@
       <c r="D22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="4">
         <v>21</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -1905,22 +2239,25 @@
       <c r="J22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K22" s="0" t="str">
-        <f aca="false">F22&amp;" "&amp;G22&amp;IF(H22&lt;&gt;"","("&amp;H22&amp;") "&amp;I22,"")&amp;","</f>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
         <v>income float8,</v>
       </c>
-      <c r="L22" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C22&amp;"."&amp;F22&amp;" is '"&amp;J22&amp;"';"</f>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.income is '合计收入';</v>
       </c>
-      <c r="M22" s="0" t="str">
-        <f aca="false">"//"&amp;J22&amp;"
-private "&amp;IF(G22="varchar2","String",IF(G22="varchar","String",IF(G22="number","Double",IF(G22="float8","Double",IF(G22="int2","Integer",IF(G22="int4","Integer",IF(G22="int8","Integer",IF(G22="bigint","Long",IF(G22="bigserial","Long",IF(G22="timestamp","Date",IF(G22="Date","Date",G22)))))))))))&amp;" "&amp;LOWER(F22)&amp;";"</f>
-        <v>//合计收入
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v>income</v>
+      </c>
+      <c r="N22" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**合计收入**/
 private Double income;</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:14" ht="16.5" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -1933,7 +2270,7 @@
       <c r="D23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="4">
         <v>22</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -1949,22 +2286,25 @@
       <c r="J23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="0" t="str">
-        <f aca="false">F23&amp;" "&amp;G23&amp;IF(H23&lt;&gt;"","("&amp;H23&amp;") "&amp;I23,"")&amp;","</f>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
         <v>finished_tag int2,</v>
       </c>
-      <c r="L23" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C23&amp;"."&amp;F23&amp;" is '"&amp;J23&amp;"';"</f>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.finished_tag is '办结标记';</v>
       </c>
-      <c r="M23" s="7" t="str">
-        <f aca="false">"//"&amp;J23&amp;"
-private "&amp;IF(G23="varchar2","String",IF(G23="varchar","String",IF(G23="number","Double",IF(G23="float8","Double",IF(G23="int2","Integer",IF(G23="int4","Integer",IF(G23="int8","Integer",IF(G23="bigint","Long",IF(G23="bigserial","Long",IF(G23="timestamp","Date",IF(G23="Date","Date",G23)))))))))))&amp;" "&amp;LOWER(F23)&amp;";"</f>
-        <v>//办结标记
-private Integer finished_tag;</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>finishedTag</v>
+      </c>
+      <c r="N23" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**办结标记**/
+private Integer finishedTag;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="28.5">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
@@ -1977,7 +2317,7 @@
       <c r="D24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="4">
         <v>23</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -1993,22 +2333,25 @@
       <c r="J24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="0" t="str">
-        <f aca="false">F24&amp;" "&amp;G24&amp;IF(H24&lt;&gt;"","("&amp;H24&amp;") "&amp;I24,"")&amp;","</f>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
         <v>delete_tag int4,</v>
       </c>
-      <c r="L24" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C24&amp;"."&amp;F24&amp;" is '"&amp;J24&amp;"';"</f>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.delete_tag is '作废标记';</v>
       </c>
-      <c r="M24" s="0" t="str">
-        <f aca="false">"//"&amp;J24&amp;"
-private "&amp;IF(G24="varchar2","String",IF(G24="varchar","String",IF(G24="number","Double",IF(G24="float8","Double",IF(G24="int2","Integer",IF(G24="int4","Integer",IF(G24="int8","Integer",IF(G24="bigint","Long",IF(G24="bigserial","Long",IF(G24="timestamp","Date",IF(G24="Date","Date",G24)))))))))))&amp;" "&amp;LOWER(F24)&amp;";"</f>
-        <v>//作废标记
-private Integer delete_tag;</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>deleteTag</v>
+      </c>
+      <c r="N24" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**作废标记**/
+private Integer deleteTag;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="28.5">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -2021,7 +2364,7 @@
       <c r="D25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="4">
         <v>24</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -2035,22 +2378,25 @@
       <c r="J25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K25" s="0" t="str">
-        <f aca="false">F25&amp;" "&amp;G25&amp;IF(H25&lt;&gt;"","("&amp;H25&amp;") "&amp;I25,"")&amp;","</f>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
         <v>delete_time timestamp,</v>
       </c>
-      <c r="L25" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C25&amp;"."&amp;F25&amp;" is '"&amp;J25&amp;"';"</f>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.delete_time is '作废时间';</v>
       </c>
-      <c r="M25" s="0" t="str">
-        <f aca="false">"//"&amp;J25&amp;"
-private "&amp;IF(G25="varchar2","String",IF(G25="varchar","String",IF(G25="number","Double",IF(G25="float8","Double",IF(G25="int2","Integer",IF(G25="int4","Integer",IF(G25="int8","Integer",IF(G25="bigint","Long",IF(G25="bigserial","Long",IF(G25="timestamp","Date",IF(G25="Date","Date",G25)))))))))))&amp;" "&amp;LOWER(F25)&amp;";"</f>
-        <v>//作废时间
-private Date delete_time;</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>deleteTime</v>
+      </c>
+      <c r="N25" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**作废时间**/
+private Date deleteTime;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="28.5">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -2063,7 +2409,7 @@
       <c r="D26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="4">
         <v>25</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -2077,22 +2423,25 @@
       <c r="J26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K26" s="0" t="str">
-        <f aca="false">F26&amp;" "&amp;G26&amp;IF(H26&lt;&gt;"","("&amp;H26&amp;") "&amp;I26,"")&amp;","</f>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
         <v>last_update_time timestamp,</v>
       </c>
-      <c r="L26" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C26&amp;"."&amp;F26&amp;" is '"&amp;J26&amp;"';"</f>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.last_update_time is '上次操作时间';</v>
       </c>
-      <c r="M26" s="0" t="str">
-        <f aca="false">"//"&amp;J26&amp;"
-private "&amp;IF(G26="varchar2","String",IF(G26="varchar","String",IF(G26="number","Double",IF(G26="float8","Double",IF(G26="int2","Integer",IF(G26="int4","Integer",IF(G26="int8","Integer",IF(G26="bigint","Long",IF(G26="bigserial","Long",IF(G26="timestamp","Date",IF(G26="Date","Date",G26)))))))))))&amp;" "&amp;LOWER(F26)&amp;";"</f>
-        <v>//上次操作时间
-private Date last_update_time;</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>lastUpdateTime</v>
+      </c>
+      <c r="N26" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**上次操作时间**/
+private Date lastUpdateTime;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="28.5">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
@@ -2105,7 +2454,7 @@
       <c r="D27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="4">
         <v>26</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -2119,22 +2468,25 @@
       <c r="J27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K27" s="0" t="str">
-        <f aca="false">F27&amp;" "&amp;G27&amp;IF(H27&lt;&gt;"","("&amp;H27&amp;") "&amp;I27,"")&amp;","</f>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
         <v>last_update_user bigint,</v>
       </c>
-      <c r="L27" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C27&amp;"."&amp;F27&amp;" is '"&amp;J27&amp;"';"</f>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column order_info.last_update_user is '上次操作人员';</v>
       </c>
-      <c r="M27" s="0" t="str">
-        <f aca="false">"//"&amp;J27&amp;"
-private "&amp;IF(G27="varchar2","String",IF(G27="varchar","String",IF(G27="number","Double",IF(G27="float8","Double",IF(G27="int2","Integer",IF(G27="int4","Integer",IF(G27="int8","Integer",IF(G27="bigint","Long",IF(G27="bigserial","Long",IF(G27="timestamp","Date",IF(G27="Date","Date",G27)))))))))))&amp;" "&amp;LOWER(F27)&amp;";"</f>
-        <v>//上次操作人员
-private Long last_update_user;</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>lastUpdateUser</v>
+      </c>
+      <c r="N27" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**上次操作人员**/
+private Long lastUpdateUser;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="28.5">
       <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
@@ -2147,7 +2499,7 @@
       <c r="D28" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="4">
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -2163,22 +2515,25 @@
       <c r="J28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="0" t="str">
-        <f aca="false">F28&amp;" "&amp;G28&amp;IF(H28&lt;&gt;"","("&amp;H28&amp;") "&amp;I28,"")&amp;","</f>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
         <v>member_id bigserial,</v>
       </c>
-      <c r="L28" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C28&amp;"."&amp;F28&amp;" is '"&amp;J28&amp;"';"</f>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column member_info.member_id is '会员编号';</v>
       </c>
-      <c r="M28" s="0" t="str">
-        <f aca="false">"//"&amp;J28&amp;"
-private "&amp;IF(G28="varchar2","String",IF(G28="varchar","String",IF(G28="number","Double",IF(G28="float8","Double",IF(G28="int2","Integer",IF(G28="int4","Integer",IF(G28="int8","Integer",IF(G28="bigint","Long",IF(G28="bigserial","Long",IF(G28="timestamp","Date",IF(G28="Date","Date",G28)))))))))))&amp;" "&amp;LOWER(F28)&amp;";"</f>
-        <v>//会员编号
-private Long member_id;</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>memberId</v>
+      </c>
+      <c r="N28" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**会员编号**/
+private Long memberId;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="28.5">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
@@ -2191,7 +2546,7 @@
       <c r="D29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="4">
         <v>2</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -2200,7 +2555,7 @@
       <c r="G29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="H29" s="4">
         <v>20</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -2209,22 +2564,25 @@
       <c r="J29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K29" s="0" t="str">
-        <f aca="false">F29&amp;" "&amp;G29&amp;IF(H29&lt;&gt;"","("&amp;H29&amp;") "&amp;I29,"")&amp;","</f>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
         <v>nickname varchar(20) NOT NULL,</v>
       </c>
-      <c r="L29" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C29&amp;"."&amp;F29&amp;" is '"&amp;J29&amp;"';"</f>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column member_info.nickname is '预定人昵称/姓名';</v>
       </c>
-      <c r="M29" s="0" t="str">
-        <f aca="false">"//"&amp;J29&amp;"
-private "&amp;IF(G29="varchar2","String",IF(G29="varchar","String",IF(G29="number","Double",IF(G29="float8","Double",IF(G29="int2","Integer",IF(G29="int4","Integer",IF(G29="int8","Integer",IF(G29="bigint","Long",IF(G29="bigserial","Long",IF(G29="timestamp","Date",IF(G29="Date","Date",G29)))))))))))&amp;" "&amp;LOWER(F29)&amp;";"</f>
-        <v>//预定人昵称/姓名
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>nickname</v>
+      </c>
+      <c r="N29" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**预定人昵称/姓名**/
 private String nickname;</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:14" ht="28.5">
       <c r="A30" s="4" t="s">
         <v>13</v>
       </c>
@@ -2237,7 +2595,7 @@
       <c r="D30" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="4">
         <v>3</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -2246,29 +2604,32 @@
       <c r="G30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="4" t="n">
+      <c r="H30" s="4">
         <v>30</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="0" t="str">
-        <f aca="false">F30&amp;" "&amp;G30&amp;IF(H30&lt;&gt;"","("&amp;H30&amp;") "&amp;I30,"")&amp;","</f>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
         <v>msisdn varchar(30) ,</v>
       </c>
-      <c r="L30" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C30&amp;"."&amp;F30&amp;" is '"&amp;J30&amp;"';"</f>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column member_info.msisdn is '预定人手机号';</v>
       </c>
-      <c r="M30" s="0" t="str">
-        <f aca="false">"//"&amp;J30&amp;"
-private "&amp;IF(G30="varchar2","String",IF(G30="varchar","String",IF(G30="number","Double",IF(G30="float8","Double",IF(G30="int2","Integer",IF(G30="int4","Integer",IF(G30="int8","Integer",IF(G30="bigint","Long",IF(G30="bigserial","Long",IF(G30="timestamp","Date",IF(G30="Date","Date",G30)))))))))))&amp;" "&amp;LOWER(F30)&amp;";"</f>
-        <v>//预定人手机号
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>msisdn</v>
+      </c>
+      <c r="N30" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**预定人手机号**/
 private String msisdn;</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:14" ht="28.5">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
@@ -2281,7 +2642,7 @@
       <c r="D31" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="4">
         <v>4</v>
       </c>
       <c r="F31" s="4" t="s">
@@ -2290,29 +2651,32 @@
       <c r="G31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="4">
         <v>30</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K31" s="0" t="str">
-        <f aca="false">F31&amp;" "&amp;G31&amp;IF(H31&lt;&gt;"","("&amp;H31&amp;") "&amp;I31,"")&amp;","</f>
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
         <v>wechat varchar(30) ,</v>
       </c>
-      <c r="L31" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C31&amp;"."&amp;F31&amp;" is '"&amp;J31&amp;"';"</f>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column member_info.wechat is '预定人微信号';</v>
       </c>
-      <c r="M31" s="0" t="str">
-        <f aca="false">"//"&amp;J31&amp;"
-private "&amp;IF(G31="varchar2","String",IF(G31="varchar","String",IF(G31="number","Double",IF(G31="float8","Double",IF(G31="int2","Integer",IF(G31="int4","Integer",IF(G31="int8","Integer",IF(G31="bigint","Long",IF(G31="bigserial","Long",IF(G31="timestamp","Date",IF(G31="Date","Date",G31)))))))))))&amp;" "&amp;LOWER(F31)&amp;";"</f>
-        <v>//预定人微信号
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>wechat</v>
+      </c>
+      <c r="N31" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**预定人微信号**/
 private String wechat;</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:14" ht="28.5">
       <c r="A32" s="4" t="s">
         <v>13</v>
       </c>
@@ -2325,7 +2689,7 @@
       <c r="D32" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E32" s="4">
         <v>5</v>
       </c>
       <c r="F32" s="4" t="s">
@@ -2334,29 +2698,32 @@
       <c r="G32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H32" s="4">
         <v>30</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K32" s="0" t="str">
-        <f aca="false">F32&amp;" "&amp;G32&amp;IF(H32&lt;&gt;"","("&amp;H32&amp;") "&amp;I32,"")&amp;","</f>
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
         <v>qq_number varchar(30) ,</v>
       </c>
-      <c r="L32" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C32&amp;"."&amp;F32&amp;" is '"&amp;J32&amp;"';"</f>
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column member_info.qq_number is '预定人QQ号';</v>
       </c>
-      <c r="M32" s="0" t="str">
-        <f aca="false">"//"&amp;J32&amp;"
-private "&amp;IF(G32="varchar2","String",IF(G32="varchar","String",IF(G32="number","Double",IF(G32="float8","Double",IF(G32="int2","Integer",IF(G32="int4","Integer",IF(G32="int8","Integer",IF(G32="bigint","Long",IF(G32="bigserial","Long",IF(G32="timestamp","Date",IF(G32="Date","Date",G32)))))))))))&amp;" "&amp;LOWER(F32)&amp;";"</f>
-        <v>//预定人QQ号
-private String qq_number;</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>qqNumber</v>
+      </c>
+      <c r="N32" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**预定人QQ号**/
+private String qqNumber;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="28.5">
       <c r="A33" s="4" t="s">
         <v>13</v>
       </c>
@@ -2369,7 +2736,7 @@
       <c r="D33" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E33" s="4">
         <v>6</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -2378,29 +2745,32 @@
       <c r="G33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="H33" s="4">
         <v>30</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K33" s="0" t="str">
-        <f aca="false">F33&amp;" "&amp;G33&amp;IF(H33&lt;&gt;"","("&amp;H33&amp;") "&amp;I33,"")&amp;","</f>
+      <c r="K33" t="str">
+        <f t="shared" si="0"/>
         <v>xiao_hong_shu varchar(30) ,</v>
       </c>
-      <c r="L33" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C33&amp;"."&amp;F33&amp;" is '"&amp;J33&amp;"';"</f>
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
         <v>comment on column member_info.xiao_hong_shu is '小红书账号';</v>
       </c>
-      <c r="M33" s="0" t="str">
-        <f aca="false">"//"&amp;J33&amp;"
-private "&amp;IF(G33="varchar2","String",IF(G33="varchar","String",IF(G33="number","Double",IF(G33="float8","Double",IF(G33="int2","Integer",IF(G33="int4","Integer",IF(G33="int8","Integer",IF(G33="bigint","Long",IF(G33="bigserial","Long",IF(G33="timestamp","Date",IF(G33="Date","Date",G33)))))))))))&amp;" "&amp;LOWER(F33)&amp;";"</f>
-        <v>//小红书账号
-private String xiao_hong_shu;</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>xiaoHongShu</v>
+      </c>
+      <c r="N33" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**小红书账号**/
+private String xiaoHongShu;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="28.5">
       <c r="A34" s="4" t="s">
         <v>13</v>
       </c>
@@ -2413,7 +2783,7 @@
       <c r="D34" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="4" t="n">
+      <c r="E34" s="4">
         <v>7</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -2422,29 +2792,32 @@
       <c r="G34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="H34" s="4">
         <v>100</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="0" t="str">
-        <f aca="false">F34&amp;" "&amp;G34&amp;IF(H34&lt;&gt;"","("&amp;H34&amp;") "&amp;I34,"")&amp;","</f>
+      <c r="K34" t="str">
+        <f t="shared" ref="K34:K65" si="4">F34&amp;" "&amp;G34&amp;IF(H34&lt;&gt;"","("&amp;H34&amp;") "&amp;I34,"")&amp;","</f>
         <v>email varchar(100) ,</v>
       </c>
-      <c r="L34" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C34&amp;"."&amp;F34&amp;" is '"&amp;J34&amp;"';"</f>
+      <c r="L34" t="str">
+        <f t="shared" ref="L34:L65" si="5">"comment on column "&amp;C34&amp;"."&amp;F34&amp;" is '"&amp;J34&amp;"';"</f>
         <v>comment on column member_info.email is '预定人邮箱地址';</v>
       </c>
-      <c r="M34" s="0" t="str">
-        <f aca="false">"//"&amp;J34&amp;"
-private "&amp;IF(G34="varchar2","String",IF(G34="varchar","String",IF(G34="number","Double",IF(G34="float8","Double",IF(G34="int2","Integer",IF(G34="int4","Integer",IF(G34="int8","Integer",IF(G34="bigint","Long",IF(G34="bigserial","Long",IF(G34="timestamp","Date",IF(G34="Date","Date",G34)))))))))))&amp;" "&amp;LOWER(F34)&amp;";"</f>
-        <v>//预定人邮箱地址
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>email</v>
+      </c>
+      <c r="N34" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**预定人邮箱地址**/
 private String email;</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:14" ht="28.5">
       <c r="A35" s="4" t="s">
         <v>13</v>
       </c>
@@ -2457,7 +2830,7 @@
       <c r="D35" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="E35" s="4">
         <v>8</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -2466,29 +2839,32 @@
       <c r="G35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="4" t="n">
+      <c r="H35" s="4">
         <v>20</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K35" s="0" t="str">
-        <f aca="false">F35&amp;" "&amp;G35&amp;IF(H35&lt;&gt;"","("&amp;H35&amp;") "&amp;I35,"")&amp;","</f>
+      <c r="K35" t="str">
+        <f t="shared" si="4"/>
         <v>name varchar(20) ,</v>
       </c>
-      <c r="L35" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C35&amp;"."&amp;F35&amp;" is '"&amp;J35&amp;"';"</f>
+      <c r="L35" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column member_info.name is '姓名';</v>
       </c>
-      <c r="M35" s="0" t="str">
-        <f aca="false">"//"&amp;J35&amp;"
-private "&amp;IF(G35="varchar2","String",IF(G35="varchar","String",IF(G35="number","Double",IF(G35="float8","Double",IF(G35="int2","Integer",IF(G35="int4","Integer",IF(G35="int8","Integer",IF(G35="bigint","Long",IF(G35="bigserial","Long",IF(G35="timestamp","Date",IF(G35="Date","Date",G35)))))))))))&amp;" "&amp;LOWER(F35)&amp;";"</f>
-        <v>//姓名
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v>name</v>
+      </c>
+      <c r="N35" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**姓名**/
 private String name;</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:14" ht="28.5">
       <c r="A36" s="4" t="s">
         <v>13</v>
       </c>
@@ -2501,7 +2877,7 @@
       <c r="D36" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="4" t="n">
+      <c r="E36" s="4">
         <v>9</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -2510,29 +2886,32 @@
       <c r="G36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="4" t="n">
+      <c r="H36" s="4">
         <v>6</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K36" s="0" t="str">
-        <f aca="false">F36&amp;" "&amp;G36&amp;IF(H36&lt;&gt;"","("&amp;H36&amp;") "&amp;I36,"")&amp;","</f>
+      <c r="K36" t="str">
+        <f t="shared" si="4"/>
         <v>gender varchar(6) ,</v>
       </c>
-      <c r="L36" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C36&amp;"."&amp;F36&amp;" is '"&amp;J36&amp;"';"</f>
+      <c r="L36" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column member_info.gender is '性别';</v>
       </c>
-      <c r="M36" s="0" t="str">
-        <f aca="false">"//"&amp;J36&amp;"
-private "&amp;IF(G36="varchar2","String",IF(G36="varchar","String",IF(G36="number","Double",IF(G36="float8","Double",IF(G36="int2","Integer",IF(G36="int4","Integer",IF(G36="int8","Integer",IF(G36="bigint","Long",IF(G36="bigserial","Long",IF(G36="timestamp","Date",IF(G36="Date","Date",G36)))))))))))&amp;" "&amp;LOWER(F36)&amp;";"</f>
-        <v>//性别
+      <c r="M36" t="str">
+        <f t="shared" si="2"/>
+        <v>gender</v>
+      </c>
+      <c r="N36" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**性别**/
 private String gender;</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:14" ht="28.5">
       <c r="A37" s="4" t="s">
         <v>13</v>
       </c>
@@ -2545,7 +2924,7 @@
       <c r="D37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="4" t="n">
+      <c r="E37" s="4">
         <v>10</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -2559,22 +2938,25 @@
       <c r="J37" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="0" t="str">
-        <f aca="false">F37&amp;" "&amp;G37&amp;IF(H37&lt;&gt;"","("&amp;H37&amp;") "&amp;I37,"")&amp;","</f>
+      <c r="K37" t="str">
+        <f t="shared" si="4"/>
         <v>birthday date,</v>
       </c>
-      <c r="L37" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C37&amp;"."&amp;F37&amp;" is '"&amp;J37&amp;"';"</f>
+      <c r="L37" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column member_info.birthday is '生日';</v>
       </c>
-      <c r="M37" s="0" t="str">
-        <f aca="false">"//"&amp;J37&amp;"
-private "&amp;IF(G37="varchar2","String",IF(G37="varchar","String",IF(G37="number","Double",IF(G37="float8","Double",IF(G37="int2","Integer",IF(G37="int4","Integer",IF(G37="int8","Integer",IF(G37="bigint","Long",IF(G37="bigserial","Long",IF(G37="timestamp","Date",IF(G37="Date","Date",G37)))))))))))&amp;" "&amp;LOWER(F37)&amp;";"</f>
-        <v>//生日
+      <c r="M37" t="str">
+        <f t="shared" si="2"/>
+        <v>birthday</v>
+      </c>
+      <c r="N37" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**生日**/
 private Date birthday;</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:14" ht="28.5">
       <c r="A38" s="4" t="s">
         <v>13</v>
       </c>
@@ -2587,7 +2969,7 @@
       <c r="D38" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="4" t="n">
+      <c r="E38" s="4">
         <v>11</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -2601,22 +2983,25 @@
       <c r="J38" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="K38" s="0" t="str">
-        <f aca="false">F38&amp;" "&amp;G38&amp;IF(H38&lt;&gt;"","("&amp;H38&amp;") "&amp;I38,"")&amp;","</f>
+      <c r="K38" t="str">
+        <f t="shared" si="4"/>
         <v>register_date timestamp,</v>
       </c>
-      <c r="L38" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C38&amp;"."&amp;F38&amp;" is '"&amp;J38&amp;"';"</f>
+      <c r="L38" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column member_info.register_date is '第一次预定时间';</v>
       </c>
-      <c r="M38" s="0" t="str">
-        <f aca="false">"//"&amp;J38&amp;"
-private "&amp;IF(G38="varchar2","String",IF(G38="varchar","String",IF(G38="number","Double",IF(G38="float8","Double",IF(G38="int2","Integer",IF(G38="int4","Integer",IF(G38="int8","Integer",IF(G38="bigint","Long",IF(G38="bigserial","Long",IF(G38="timestamp","Date",IF(G38="Date","Date",G38)))))))))))&amp;" "&amp;LOWER(F38)&amp;";"</f>
-        <v>//第一次预定时间
-private Date register_date;</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M38" t="str">
+        <f t="shared" si="2"/>
+        <v>registerDate</v>
+      </c>
+      <c r="N38" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**第一次预定时间**/
+private Date registerDate;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="28.5">
       <c r="A39" s="4" t="s">
         <v>13</v>
       </c>
@@ -2629,7 +3014,7 @@
       <c r="D39" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="4" t="n">
+      <c r="E39" s="4">
         <v>12</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -2638,29 +3023,32 @@
       <c r="G39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="4" t="n">
+      <c r="H39" s="4">
         <v>255</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="K39" s="0" t="str">
-        <f aca="false">F39&amp;" "&amp;G39&amp;IF(H39&lt;&gt;"","("&amp;H39&amp;") "&amp;I39,"")&amp;","</f>
+      <c r="K39" t="str">
+        <f t="shared" si="4"/>
         <v>remarks varchar(255) ,</v>
       </c>
-      <c r="L39" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C39&amp;"."&amp;F39&amp;" is '"&amp;J39&amp;"';"</f>
+      <c r="L39" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column member_info.remarks is '备注信息(偏好、风格)';</v>
       </c>
-      <c r="M39" s="0" t="str">
-        <f aca="false">"//"&amp;J39&amp;"
-private "&amp;IF(G39="varchar2","String",IF(G39="varchar","String",IF(G39="number","Double",IF(G39="float8","Double",IF(G39="int2","Integer",IF(G39="int4","Integer",IF(G39="int8","Integer",IF(G39="bigint","Long",IF(G39="bigserial","Long",IF(G39="timestamp","Date",IF(G39="Date","Date",G39)))))))))))&amp;" "&amp;LOWER(F39)&amp;";"</f>
-        <v>//备注信息(偏好、风格)
+      <c r="M39" t="str">
+        <f t="shared" si="2"/>
+        <v>remarks</v>
+      </c>
+      <c r="N39" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**备注信息(偏好、风格)**/
 private String remarks;</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:14" ht="28.5">
       <c r="A40" s="4" t="s">
         <v>13</v>
       </c>
@@ -2673,7 +3061,7 @@
       <c r="D40" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="4" t="n">
+      <c r="E40" s="4">
         <v>13</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -2689,22 +3077,25 @@
       <c r="J40" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="K40" s="0" t="str">
-        <f aca="false">F40&amp;" "&amp;G40&amp;IF(H40&lt;&gt;"","("&amp;H40&amp;") "&amp;I40,"")&amp;","</f>
+      <c r="K40" t="str">
+        <f t="shared" si="4"/>
         <v>delete_tag int2,</v>
       </c>
-      <c r="L40" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C40&amp;"."&amp;F40&amp;" is '"&amp;J40&amp;"';"</f>
+      <c r="L40" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column member_info.delete_tag is '删除标识';</v>
       </c>
-      <c r="M40" s="0" t="str">
-        <f aca="false">"//"&amp;J40&amp;"
-private "&amp;IF(G40="varchar2","String",IF(G40="varchar","String",IF(G40="number","Double",IF(G40="float8","Double",IF(G40="int2","Integer",IF(G40="int4","Integer",IF(G40="int8","Integer",IF(G40="bigint","Long",IF(G40="bigserial","Long",IF(G40="timestamp","Date",IF(G40="Date","Date",G40)))))))))))&amp;" "&amp;LOWER(F40)&amp;";"</f>
-        <v>//删除标识
-private Integer delete_tag;</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M40" t="str">
+        <f t="shared" si="2"/>
+        <v>deleteTag</v>
+      </c>
+      <c r="N40" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**删除标识**/
+private Integer deleteTag;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="28.5">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
@@ -2717,7 +3108,7 @@
       <c r="D41" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="4" t="n">
+      <c r="E41" s="4">
         <v>14</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -2731,22 +3122,25 @@
       <c r="J41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K41" s="0" t="str">
-        <f aca="false">F41&amp;" "&amp;G41&amp;IF(H41&lt;&gt;"","("&amp;H41&amp;") "&amp;I41,"")&amp;","</f>
+      <c r="K41" t="str">
+        <f t="shared" si="4"/>
         <v>delete_time timestamp,</v>
       </c>
-      <c r="L41" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C41&amp;"."&amp;F41&amp;" is '"&amp;J41&amp;"';"</f>
+      <c r="L41" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column member_info.delete_time is '作废时间';</v>
       </c>
-      <c r="M41" s="0" t="str">
-        <f aca="false">"//"&amp;J41&amp;"
-private "&amp;IF(G41="varchar2","String",IF(G41="varchar","String",IF(G41="number","Double",IF(G41="float8","Double",IF(G41="int2","Integer",IF(G41="int4","Integer",IF(G41="int8","Integer",IF(G41="bigint","Long",IF(G41="bigserial","Long",IF(G41="timestamp","Date",IF(G41="Date","Date",G41)))))))))))&amp;" "&amp;LOWER(F41)&amp;";"</f>
-        <v>//作废时间
-private Date delete_time;</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M41" t="str">
+        <f t="shared" si="2"/>
+        <v>deleteTime</v>
+      </c>
+      <c r="N41" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**作废时间**/
+private Date deleteTime;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="28.5">
       <c r="A42" s="4" t="s">
         <v>13</v>
       </c>
@@ -2759,7 +3153,7 @@
       <c r="D42" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="4" t="n">
+      <c r="E42" s="4">
         <v>1</v>
       </c>
       <c r="F42" s="4" t="s">
@@ -2775,22 +3169,25 @@
       <c r="J42" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K42" s="0" t="str">
-        <f aca="false">F42&amp;" "&amp;G42&amp;IF(H42&lt;&gt;"","("&amp;H42&amp;") "&amp;I42,"")&amp;","</f>
+      <c r="K42" t="str">
+        <f t="shared" si="4"/>
         <v>id bigserial,</v>
       </c>
-      <c r="L42" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C42&amp;"."&amp;F42&amp;" is '"&amp;J42&amp;"';"</f>
+      <c r="L42" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column stuff_account.id is '员工标识';</v>
       </c>
-      <c r="M42" s="0" t="str">
-        <f aca="false">"//"&amp;J42&amp;"
-private "&amp;IF(G42="varchar2","String",IF(G42="varchar","String",IF(G42="number","Double",IF(G42="float8","Double",IF(G42="int2","Integer",IF(G42="int4","Integer",IF(G42="int8","Integer",IF(G42="bigint","Long",IF(G42="bigserial","Long",IF(G42="timestamp","Date",IF(G42="Date","Date",G42)))))))))))&amp;" "&amp;LOWER(F42)&amp;";"</f>
-        <v>//员工标识
+      <c r="M42" t="str">
+        <f t="shared" si="2"/>
+        <v>id</v>
+      </c>
+      <c r="N42" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**员工标识**/
 private Long id;</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:14" ht="28.5">
       <c r="A43" s="4" t="s">
         <v>13</v>
       </c>
@@ -2803,7 +3200,7 @@
       <c r="D43" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="4" t="n">
+      <c r="E43" s="4">
         <v>2</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -2812,7 +3209,7 @@
       <c r="G43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="4" t="n">
+      <c r="H43" s="4">
         <v>36</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -2821,22 +3218,25 @@
       <c r="J43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="K43" s="0" t="str">
-        <f aca="false">F43&amp;" "&amp;G43&amp;IF(H43&lt;&gt;"","("&amp;H43&amp;") "&amp;I43,"")&amp;","</f>
+      <c r="K43" t="str">
+        <f t="shared" si="4"/>
         <v>account varchar(36) NOT NULL,</v>
       </c>
-      <c r="L43" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C43&amp;"."&amp;F43&amp;" is '"&amp;J43&amp;"';"</f>
+      <c r="L43" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column stuff_account.account is '账号';</v>
       </c>
-      <c r="M43" s="0" t="str">
-        <f aca="false">"//"&amp;J43&amp;"
-private "&amp;IF(G43="varchar2","String",IF(G43="varchar","String",IF(G43="number","Double",IF(G43="float8","Double",IF(G43="int2","Integer",IF(G43="int4","Integer",IF(G43="int8","Integer",IF(G43="bigint","Long",IF(G43="bigserial","Long",IF(G43="timestamp","Date",IF(G43="Date","Date",G43)))))))))))&amp;" "&amp;LOWER(F43)&amp;";"</f>
-        <v>//账号
+      <c r="M43" t="str">
+        <f t="shared" si="2"/>
+        <v>account</v>
+      </c>
+      <c r="N43" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**账号**/
 private String account;</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:14" ht="28.5">
       <c r="A44" s="4" t="s">
         <v>13</v>
       </c>
@@ -2849,7 +3249,7 @@
       <c r="D44" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="4" t="n">
+      <c r="E44" s="4">
         <v>3</v>
       </c>
       <c r="F44" s="4" t="s">
@@ -2858,7 +3258,7 @@
       <c r="G44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="4" t="n">
+      <c r="H44" s="4">
         <v>255</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -2867,22 +3267,25 @@
       <c r="J44" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="K44" s="0" t="str">
-        <f aca="false">F44&amp;" "&amp;G44&amp;IF(H44&lt;&gt;"","("&amp;H44&amp;") "&amp;I44,"")&amp;","</f>
+      <c r="K44" t="str">
+        <f t="shared" si="4"/>
         <v>password varchar(255) NOT NULL,</v>
       </c>
-      <c r="L44" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C44&amp;"."&amp;F44&amp;" is '"&amp;J44&amp;"';"</f>
+      <c r="L44" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column stuff_account.password is '密码';</v>
       </c>
-      <c r="M44" s="0" t="str">
-        <f aca="false">"//"&amp;J44&amp;"
-private "&amp;IF(G44="varchar2","String",IF(G44="varchar","String",IF(G44="number","Double",IF(G44="float8","Double",IF(G44="int2","Integer",IF(G44="int4","Integer",IF(G44="int8","Integer",IF(G44="bigint","Long",IF(G44="bigserial","Long",IF(G44="timestamp","Date",IF(G44="Date","Date",G44)))))))))))&amp;" "&amp;LOWER(F44)&amp;";"</f>
-        <v>//密码
+      <c r="M44" t="str">
+        <f t="shared" si="2"/>
+        <v>password</v>
+      </c>
+      <c r="N44" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**密码**/
 private String password;</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:14" ht="28.5">
       <c r="A45" s="4" t="s">
         <v>13</v>
       </c>
@@ -2895,7 +3298,7 @@
       <c r="D45" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="4" t="n">
+      <c r="E45" s="4">
         <v>4</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -2904,7 +3307,7 @@
       <c r="G45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="4" t="n">
+      <c r="H45" s="4">
         <v>255</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -2913,22 +3316,25 @@
       <c r="J45" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="K45" s="0" t="str">
-        <f aca="false">F45&amp;" "&amp;G45&amp;IF(H45&lt;&gt;"","("&amp;H45&amp;") "&amp;I45,"")&amp;","</f>
+      <c r="K45" t="str">
+        <f t="shared" si="4"/>
         <v>salt varchar(255) NOT NULL,</v>
       </c>
-      <c r="L45" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C45&amp;"."&amp;F45&amp;" is '"&amp;J45&amp;"';"</f>
+      <c r="L45" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column stuff_account.salt is '密码噪声';</v>
       </c>
-      <c r="M45" s="0" t="str">
-        <f aca="false">"//"&amp;J45&amp;"
-private "&amp;IF(G45="varchar2","String",IF(G45="varchar","String",IF(G45="number","Double",IF(G45="float8","Double",IF(G45="int2","Integer",IF(G45="int4","Integer",IF(G45="int8","Integer",IF(G45="bigint","Long",IF(G45="bigserial","Long",IF(G45="timestamp","Date",IF(G45="Date","Date",G45)))))))))))&amp;" "&amp;LOWER(F45)&amp;";"</f>
-        <v>//密码噪声
+      <c r="M45" t="str">
+        <f t="shared" si="2"/>
+        <v>salt</v>
+      </c>
+      <c r="N45" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**密码噪声**/
 private String salt;</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:14" ht="28.5">
       <c r="A46" s="4" t="s">
         <v>13</v>
       </c>
@@ -2941,7 +3347,7 @@
       <c r="D46" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="4" t="n">
+      <c r="E46" s="4">
         <v>5</v>
       </c>
       <c r="F46" s="4" t="s">
@@ -2950,7 +3356,7 @@
       <c r="G46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="4" t="n">
+      <c r="H46" s="4">
         <v>20</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -2959,22 +3365,25 @@
       <c r="J46" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K46" s="0" t="str">
-        <f aca="false">F46&amp;" "&amp;G46&amp;IF(H46&lt;&gt;"","("&amp;H46&amp;") "&amp;I46,"")&amp;","</f>
+      <c r="K46" t="str">
+        <f t="shared" si="4"/>
         <v>nickname varchar(20) NOT NULL,</v>
       </c>
-      <c r="L46" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C46&amp;"."&amp;F46&amp;" is '"&amp;J46&amp;"';"</f>
+      <c r="L46" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column stuff_account.nickname is '花名';</v>
       </c>
-      <c r="M46" s="0" t="str">
-        <f aca="false">"//"&amp;J46&amp;"
-private "&amp;IF(G46="varchar2","String",IF(G46="varchar","String",IF(G46="number","Double",IF(G46="float8","Double",IF(G46="int2","Integer",IF(G46="int4","Integer",IF(G46="int8","Integer",IF(G46="bigint","Long",IF(G46="bigserial","Long",IF(G46="timestamp","Date",IF(G46="Date","Date",G46)))))))))))&amp;" "&amp;LOWER(F46)&amp;";"</f>
-        <v>//花名
+      <c r="M46" t="str">
+        <f t="shared" si="2"/>
+        <v>nickname</v>
+      </c>
+      <c r="N46" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**花名**/
 private String nickname;</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:14" ht="28.5">
       <c r="A47" s="4" t="s">
         <v>13</v>
       </c>
@@ -2987,7 +3396,7 @@
       <c r="D47" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="4" t="n">
+      <c r="E47" s="4">
         <v>6</v>
       </c>
       <c r="F47" s="4" t="s">
@@ -2996,29 +3405,32 @@
       <c r="G47" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="4" t="n">
+      <c r="H47" s="4">
         <v>6</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K47" s="0" t="str">
-        <f aca="false">F47&amp;" "&amp;G47&amp;IF(H47&lt;&gt;"","("&amp;H47&amp;") "&amp;I47,"")&amp;","</f>
+      <c r="K47" t="str">
+        <f t="shared" si="4"/>
         <v>gender varchar(6) ,</v>
       </c>
-      <c r="L47" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C47&amp;"."&amp;F47&amp;" is '"&amp;J47&amp;"';"</f>
+      <c r="L47" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column stuff_account.gender is '性别';</v>
       </c>
-      <c r="M47" s="0" t="str">
-        <f aca="false">"//"&amp;J47&amp;"
-private "&amp;IF(G47="varchar2","String",IF(G47="varchar","String",IF(G47="number","Double",IF(G47="float8","Double",IF(G47="int2","Integer",IF(G47="int4","Integer",IF(G47="int8","Integer",IF(G47="bigint","Long",IF(G47="bigserial","Long",IF(G47="timestamp","Date",IF(G47="Date","Date",G47)))))))))))&amp;" "&amp;LOWER(F47)&amp;";"</f>
-        <v>//性别
+      <c r="M47" t="str">
+        <f t="shared" si="2"/>
+        <v>gender</v>
+      </c>
+      <c r="N47" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**性别**/
 private String gender;</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:14" ht="28.5">
       <c r="A48" s="4" t="s">
         <v>13</v>
       </c>
@@ -3031,7 +3443,7 @@
       <c r="D48" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="4" t="n">
+      <c r="E48" s="4">
         <v>7</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -3040,29 +3452,32 @@
       <c r="G48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="4" t="n">
+      <c r="H48" s="4">
         <v>30</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="K48" s="0" t="str">
-        <f aca="false">F48&amp;" "&amp;G48&amp;IF(H48&lt;&gt;"","("&amp;H48&amp;") "&amp;I48,"")&amp;","</f>
+      <c r="K48" t="str">
+        <f t="shared" si="4"/>
         <v>msisdn varchar(30) ,</v>
       </c>
-      <c r="L48" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C48&amp;"."&amp;F48&amp;" is '"&amp;J48&amp;"';"</f>
+      <c r="L48" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column stuff_account.msisdn is '手机号';</v>
       </c>
-      <c r="M48" s="0" t="str">
-        <f aca="false">"//"&amp;J48&amp;"
-private "&amp;IF(G48="varchar2","String",IF(G48="varchar","String",IF(G48="number","Double",IF(G48="float8","Double",IF(G48="int2","Integer",IF(G48="int4","Integer",IF(G48="int8","Integer",IF(G48="bigint","Long",IF(G48="bigserial","Long",IF(G48="timestamp","Date",IF(G48="Date","Date",G48)))))))))))&amp;" "&amp;LOWER(F48)&amp;";"</f>
-        <v>//手机号
+      <c r="M48" t="str">
+        <f t="shared" si="2"/>
+        <v>msisdn</v>
+      </c>
+      <c r="N48" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**手机号**/
 private String msisdn;</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:14" ht="28.5">
       <c r="A49" s="4" t="s">
         <v>13</v>
       </c>
@@ -3075,7 +3490,7 @@
       <c r="D49" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="4" t="n">
+      <c r="E49" s="4">
         <v>8</v>
       </c>
       <c r="F49" s="4" t="s">
@@ -3084,29 +3499,32 @@
       <c r="G49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="4" t="n">
+      <c r="H49" s="4">
         <v>18</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="K49" s="0" t="str">
-        <f aca="false">F49&amp;" "&amp;G49&amp;IF(H49&lt;&gt;"","("&amp;H49&amp;") "&amp;I49,"")&amp;","</f>
+      <c r="K49" t="str">
+        <f t="shared" si="4"/>
         <v>identification varchar(18) ,</v>
       </c>
-      <c r="L49" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C49&amp;"."&amp;F49&amp;" is '"&amp;J49&amp;"';"</f>
+      <c r="L49" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column stuff_account.identification is '身份识别码';</v>
       </c>
-      <c r="M49" s="0" t="str">
-        <f aca="false">"//"&amp;J49&amp;"
-private "&amp;IF(G49="varchar2","String",IF(G49="varchar","String",IF(G49="number","Double",IF(G49="float8","Double",IF(G49="int2","Integer",IF(G49="int4","Integer",IF(G49="int8","Integer",IF(G49="bigint","Long",IF(G49="bigserial","Long",IF(G49="timestamp","Date",IF(G49="Date","Date",G49)))))))))))&amp;" "&amp;LOWER(F49)&amp;";"</f>
-        <v>//身份识别码
+      <c r="M49" t="str">
+        <f t="shared" si="2"/>
+        <v>identification</v>
+      </c>
+      <c r="N49" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**身份识别码**/
 private String identification;</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:14" ht="28.5">
       <c r="A50" s="4" t="s">
         <v>13</v>
       </c>
@@ -3119,7 +3537,7 @@
       <c r="D50" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="4" t="n">
+      <c r="E50" s="4">
         <v>9</v>
       </c>
       <c r="F50" s="4" t="s">
@@ -3128,29 +3546,32 @@
       <c r="G50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H50" s="4" t="n">
+      <c r="H50" s="4">
         <v>20</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K50" s="0" t="str">
-        <f aca="false">F50&amp;" "&amp;G50&amp;IF(H50&lt;&gt;"","("&amp;H50&amp;") "&amp;I50,"")&amp;","</f>
+      <c r="K50" t="str">
+        <f t="shared" si="4"/>
         <v>name varchar(20) ,</v>
       </c>
-      <c r="L50" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C50&amp;"."&amp;F50&amp;" is '"&amp;J50&amp;"';"</f>
+      <c r="L50" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column stuff_account.name is '姓名';</v>
       </c>
-      <c r="M50" s="0" t="str">
-        <f aca="false">"//"&amp;J50&amp;"
-private "&amp;IF(G50="varchar2","String",IF(G50="varchar","String",IF(G50="number","Double",IF(G50="float8","Double",IF(G50="int2","Integer",IF(G50="int4","Integer",IF(G50="int8","Integer",IF(G50="bigint","Long",IF(G50="bigserial","Long",IF(G50="timestamp","Date",IF(G50="Date","Date",G50)))))))))))&amp;" "&amp;LOWER(F50)&amp;";"</f>
-        <v>//姓名
+      <c r="M50" t="str">
+        <f t="shared" si="2"/>
+        <v>name</v>
+      </c>
+      <c r="N50" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**姓名**/
 private String name;</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:14" ht="28.5">
       <c r="A51" s="4" t="s">
         <v>13</v>
       </c>
@@ -3163,7 +3584,7 @@
       <c r="D51" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="4" t="n">
+      <c r="E51" s="4">
         <v>10</v>
       </c>
       <c r="F51" s="4" t="s">
@@ -3179,22 +3600,25 @@
       <c r="J51" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="K51" s="0" t="str">
-        <f aca="false">F51&amp;" "&amp;G51&amp;IF(H51&lt;&gt;"","("&amp;H51&amp;") "&amp;I51,"")&amp;","</f>
+      <c r="K51" t="str">
+        <f t="shared" si="4"/>
         <v>user_status int4,</v>
       </c>
-      <c r="L51" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C51&amp;"."&amp;F51&amp;" is '"&amp;J51&amp;"';"</f>
+      <c r="L51" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column stuff_account.user_status is '删除标识';</v>
       </c>
-      <c r="M51" s="0" t="str">
-        <f aca="false">"//"&amp;J51&amp;"
-private "&amp;IF(G51="varchar2","String",IF(G51="varchar","String",IF(G51="number","Double",IF(G51="float8","Double",IF(G51="int2","Integer",IF(G51="int4","Integer",IF(G51="int8","Integer",IF(G51="bigint","Long",IF(G51="bigserial","Long",IF(G51="timestamp","Date",IF(G51="Date","Date",G51)))))))))))&amp;" "&amp;LOWER(F51)&amp;";"</f>
-        <v>//删除标识
-private Integer user_status;</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M51" t="str">
+        <f t="shared" si="2"/>
+        <v>userStatus</v>
+      </c>
+      <c r="N51" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**删除标识**/
+private Integer userStatus;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="28.5">
       <c r="A52" s="4" t="s">
         <v>13</v>
       </c>
@@ -3207,7 +3631,7 @@
       <c r="D52" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="4" t="n">
+      <c r="E52" s="4">
         <v>11</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -3216,29 +3640,32 @@
       <c r="G52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="4" t="n">
+      <c r="H52" s="4">
         <v>50</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="K52" s="0" t="str">
-        <f aca="false">F52&amp;" "&amp;G52&amp;IF(H52&lt;&gt;"","("&amp;H52&amp;") "&amp;I52,"")&amp;","</f>
+      <c r="K52" t="str">
+        <f t="shared" si="4"/>
         <v>avatar varchar(50) ,</v>
       </c>
-      <c r="L52" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C52&amp;"."&amp;F52&amp;" is '"&amp;J52&amp;"';"</f>
+      <c r="L52" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column stuff_account.avatar is '头像';</v>
       </c>
-      <c r="M52" s="0" t="str">
-        <f aca="false">"//"&amp;J52&amp;"
-private "&amp;IF(G52="varchar2","String",IF(G52="varchar","String",IF(G52="number","Double",IF(G52="float8","Double",IF(G52="int2","Integer",IF(G52="int4","Integer",IF(G52="int8","Integer",IF(G52="bigint","Long",IF(G52="bigserial","Long",IF(G52="timestamp","Date",IF(G52="Date","Date",G52)))))))))))&amp;" "&amp;LOWER(F52)&amp;";"</f>
-        <v>//头像
+      <c r="M52" t="str">
+        <f t="shared" si="2"/>
+        <v>avatar</v>
+      </c>
+      <c r="N52" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**头像**/
 private String avatar;</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:14" ht="28.5">
       <c r="A53" s="4" t="s">
         <v>13</v>
       </c>
@@ -3251,7 +3678,7 @@
       <c r="D53" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="4" t="n">
+      <c r="E53" s="4">
         <v>12</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -3260,29 +3687,32 @@
       <c r="G53" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H53" s="4" t="n">
+      <c r="H53" s="4">
         <v>50</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="K53" s="0" t="str">
-        <f aca="false">F53&amp;" "&amp;G53&amp;IF(H53&lt;&gt;"","("&amp;H53&amp;") "&amp;I53,"")&amp;","</f>
+      <c r="K53" t="str">
+        <f t="shared" si="4"/>
         <v>email varchar(50) ,</v>
       </c>
-      <c r="L53" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C53&amp;"."&amp;F53&amp;" is '"&amp;J53&amp;"';"</f>
+      <c r="L53" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column stuff_account.email is '电子邮箱地址';</v>
       </c>
-      <c r="M53" s="0" t="str">
-        <f aca="false">"//"&amp;J53&amp;"
-private "&amp;IF(G53="varchar2","String",IF(G53="varchar","String",IF(G53="number","Double",IF(G53="float8","Double",IF(G53="int2","Integer",IF(G53="int4","Integer",IF(G53="int8","Integer",IF(G53="bigint","Long",IF(G53="bigserial","Long",IF(G53="timestamp","Date",IF(G53="Date","Date",G53)))))))))))&amp;" "&amp;LOWER(F53)&amp;";"</f>
-        <v>//电子邮箱地址
+      <c r="M53" t="str">
+        <f t="shared" si="2"/>
+        <v>email</v>
+      </c>
+      <c r="N53" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**电子邮箱地址**/
 private String email;</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:14" ht="28.5">
       <c r="A54" s="4" t="s">
         <v>13</v>
       </c>
@@ -3295,7 +3725,7 @@
       <c r="D54" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="4" t="n">
+      <c r="E54" s="4">
         <v>13</v>
       </c>
       <c r="F54" s="4" t="s">
@@ -3304,29 +3734,32 @@
       <c r="G54" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H54" s="4" t="n">
+      <c r="H54" s="4">
         <v>20</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K54" s="0" t="str">
-        <f aca="false">F54&amp;" "&amp;G54&amp;IF(H54&lt;&gt;"","("&amp;H54&amp;") "&amp;I54,"")&amp;","</f>
+      <c r="K54" t="str">
+        <f t="shared" si="4"/>
         <v>access varchar(20) ,</v>
       </c>
-      <c r="L54" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C54&amp;"."&amp;F54&amp;" is '"&amp;J54&amp;"';"</f>
+      <c r="L54" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column stuff_account.access is 'access:admin/normal';</v>
       </c>
-      <c r="M54" s="0" t="str">
-        <f aca="false">"//"&amp;J54&amp;"
-private "&amp;IF(G54="varchar2","String",IF(G54="varchar","String",IF(G54="number","Double",IF(G54="float8","Double",IF(G54="int2","Integer",IF(G54="int4","Integer",IF(G54="int8","Integer",IF(G54="bigint","Long",IF(G54="bigserial","Long",IF(G54="timestamp","Date",IF(G54="Date","Date",G54)))))))))))&amp;" "&amp;LOWER(F54)&amp;";"</f>
-        <v>//access:admin/normal
+      <c r="M54" t="str">
+        <f t="shared" si="2"/>
+        <v>access</v>
+      </c>
+      <c r="N54" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**access:admin/normal**/
 private String access;</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:14" ht="28.5">
       <c r="A55" s="4" t="s">
         <v>13</v>
       </c>
@@ -3339,7 +3772,7 @@
       <c r="D55" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E55" s="4" t="n">
+      <c r="E55" s="4">
         <v>14</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -3353,22 +3786,25 @@
       <c r="J55" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="K55" s="0" t="str">
-        <f aca="false">F55&amp;" "&amp;G55&amp;IF(H55&lt;&gt;"","("&amp;H55&amp;") "&amp;I55,"")&amp;","</f>
+      <c r="K55" t="str">
+        <f t="shared" si="4"/>
         <v>create_time timestamp,</v>
       </c>
-      <c r="L55" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C55&amp;"."&amp;F55&amp;" is '"&amp;J55&amp;"';"</f>
+      <c r="L55" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column stuff_account.create_time is '创建日期';</v>
       </c>
-      <c r="M55" s="0" t="str">
-        <f aca="false">"//"&amp;J55&amp;"
-private "&amp;IF(G55="varchar2","String",IF(G55="varchar","String",IF(G55="number","Double",IF(G55="float8","Double",IF(G55="int2","Integer",IF(G55="int4","Integer",IF(G55="int8","Integer",IF(G55="bigint","Long",IF(G55="bigserial","Long",IF(G55="timestamp","Date",IF(G55="Date","Date",G55)))))))))))&amp;" "&amp;LOWER(F55)&amp;";"</f>
-        <v>//创建日期
-private Date create_time;</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M55" t="str">
+        <f t="shared" si="2"/>
+        <v>createTime</v>
+      </c>
+      <c r="N55" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**创建日期**/
+private Date createTime;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="28.5">
       <c r="A56" s="4" t="s">
         <v>13</v>
       </c>
@@ -3381,7 +3817,7 @@
       <c r="D56" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="4" t="n">
+      <c r="E56" s="4">
         <v>1</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -3397,22 +3833,25 @@
       <c r="J56" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="K56" s="0" t="str">
-        <f aca="false">F56&amp;" "&amp;G56&amp;IF(H56&lt;&gt;"","("&amp;H56&amp;") "&amp;I56,"")&amp;","</f>
+      <c r="K56" t="str">
+        <f t="shared" si="4"/>
         <v>id bigserial,</v>
       </c>
-      <c r="L56" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C56&amp;"."&amp;F56&amp;" is '"&amp;J56&amp;"';"</f>
+      <c r="L56" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column combo_info.id is '套餐编码';</v>
       </c>
-      <c r="M56" s="0" t="str">
-        <f aca="false">"//"&amp;J56&amp;"
-private "&amp;IF(G56="varchar2","String",IF(G56="varchar","String",IF(G56="number","Double",IF(G56="float8","Double",IF(G56="int2","Integer",IF(G56="int4","Integer",IF(G56="int8","Integer",IF(G56="bigint","Long",IF(G56="bigserial","Long",IF(G56="timestamp","Date",IF(G56="Date","Date",G56)))))))))))&amp;" "&amp;LOWER(F56)&amp;";"</f>
-        <v>//套餐编码
+      <c r="M56" t="str">
+        <f t="shared" si="2"/>
+        <v>id</v>
+      </c>
+      <c r="N56" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**套餐编码**/
 private Long id;</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:14" ht="28.5">
       <c r="A57" s="4" t="s">
         <v>13</v>
       </c>
@@ -3425,7 +3864,7 @@
       <c r="D57" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E57" s="4" t="n">
+      <c r="E57" s="4">
         <v>2</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -3434,7 +3873,7 @@
       <c r="G57" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H57" s="4" t="n">
+      <c r="H57" s="4">
         <v>50</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -3443,22 +3882,25 @@
       <c r="J57" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K57" s="0" t="str">
-        <f aca="false">F57&amp;" "&amp;G57&amp;IF(H57&lt;&gt;"","("&amp;H57&amp;") "&amp;I57,"")&amp;","</f>
+      <c r="K57" t="str">
+        <f t="shared" si="4"/>
         <v>name varchar(50) NOT NULL,</v>
       </c>
-      <c r="L57" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C57&amp;"."&amp;F57&amp;" is '"&amp;J57&amp;"';"</f>
+      <c r="L57" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column combo_info.name is '套餐名称';</v>
       </c>
-      <c r="M57" s="0" t="str">
-        <f aca="false">"//"&amp;J57&amp;"
-private "&amp;IF(G57="varchar2","String",IF(G57="varchar","String",IF(G57="number","Double",IF(G57="float8","Double",IF(G57="int2","Integer",IF(G57="int4","Integer",IF(G57="int8","Integer",IF(G57="bigint","Long",IF(G57="bigserial","Long",IF(G57="timestamp","Date",IF(G57="Date","Date",G57)))))))))))&amp;" "&amp;LOWER(F57)&amp;";"</f>
-        <v>//套餐名称
+      <c r="M57" t="str">
+        <f t="shared" si="2"/>
+        <v>name</v>
+      </c>
+      <c r="N57" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**套餐名称**/
 private String name;</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:14" ht="28.5">
       <c r="A58" s="4" t="s">
         <v>13</v>
       </c>
@@ -3471,7 +3913,7 @@
       <c r="D58" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="4" t="n">
+      <c r="E58" s="4">
         <v>3</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -3487,22 +3929,25 @@
       <c r="J58" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="K58" s="0" t="str">
-        <f aca="false">F58&amp;" "&amp;G58&amp;IF(H58&lt;&gt;"","("&amp;H58&amp;") "&amp;I58,"")&amp;","</f>
+      <c r="K58" t="str">
+        <f t="shared" si="4"/>
         <v>price float8,</v>
       </c>
-      <c r="L58" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C58&amp;"."&amp;F58&amp;" is '"&amp;J58&amp;"';"</f>
+      <c r="L58" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column combo_info.price is '套餐价格';</v>
       </c>
-      <c r="M58" s="0" t="str">
-        <f aca="false">"//"&amp;J58&amp;"
-private "&amp;IF(G58="varchar2","String",IF(G58="varchar","String",IF(G58="number","Double",IF(G58="float8","Double",IF(G58="int2","Integer",IF(G58="int4","Integer",IF(G58="int8","Integer",IF(G58="bigint","Long",IF(G58="bigserial","Long",IF(G58="timestamp","Date",IF(G58="Date","Date",G58)))))))))))&amp;" "&amp;LOWER(F58)&amp;";"</f>
-        <v>//套餐价格
+      <c r="M58" t="str">
+        <f t="shared" si="2"/>
+        <v>price</v>
+      </c>
+      <c r="N58" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**套餐价格**/
 private Double price;</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:14" ht="28.5">
       <c r="A59" s="4" t="s">
         <v>13</v>
       </c>
@@ -3515,7 +3960,7 @@
       <c r="D59" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E59" s="4" t="n">
+      <c r="E59" s="4">
         <v>4</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -3524,29 +3969,32 @@
       <c r="G59" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H59" s="4" t="n">
+      <c r="H59" s="4">
         <v>255</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="K59" s="0" t="str">
-        <f aca="false">F59&amp;" "&amp;G59&amp;IF(H59&lt;&gt;"","("&amp;H59&amp;") "&amp;I59,"")&amp;","</f>
+      <c r="K59" t="str">
+        <f t="shared" si="4"/>
         <v>remark varchar(255) ,</v>
       </c>
-      <c r="L59" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C59&amp;"."&amp;F59&amp;" is '"&amp;J59&amp;"';"</f>
+      <c r="L59" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column combo_info.remark is '套餐描述';</v>
       </c>
-      <c r="M59" s="0" t="str">
-        <f aca="false">"//"&amp;J59&amp;"
-private "&amp;IF(G59="varchar2","String",IF(G59="varchar","String",IF(G59="number","Double",IF(G59="float8","Double",IF(G59="int2","Integer",IF(G59="int4","Integer",IF(G59="int8","Integer",IF(G59="bigint","Long",IF(G59="bigserial","Long",IF(G59="timestamp","Date",IF(G59="Date","Date",G59)))))))))))&amp;" "&amp;LOWER(F59)&amp;";"</f>
-        <v>//套餐描述
+      <c r="M59" t="str">
+        <f t="shared" si="2"/>
+        <v>remark</v>
+      </c>
+      <c r="N59" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**套餐描述**/
 private String remark;</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:14" ht="28.5">
       <c r="A60" s="4" t="s">
         <v>13</v>
       </c>
@@ -3559,7 +4007,7 @@
       <c r="D60" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="4" t="n">
+      <c r="E60" s="4">
         <v>5</v>
       </c>
       <c r="F60" s="4" t="s">
@@ -3573,22 +4021,25 @@
       <c r="J60" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K60" s="0" t="str">
-        <f aca="false">F60&amp;" "&amp;G60&amp;IF(H60&lt;&gt;"","("&amp;H60&amp;") "&amp;I60,"")&amp;","</f>
+      <c r="K60" t="str">
+        <f t="shared" si="4"/>
         <v>num_set int8,</v>
       </c>
-      <c r="L60" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C60&amp;"."&amp;F60&amp;" is '"&amp;J60&amp;"';"</f>
+      <c r="L60" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column combo_info.num_set is '包含套数';</v>
       </c>
-      <c r="M60" s="0" t="str">
-        <f aca="false">"//"&amp;J60&amp;"
-private "&amp;IF(G60="varchar2","String",IF(G60="varchar","String",IF(G60="number","Double",IF(G60="float8","Double",IF(G60="int2","Integer",IF(G60="int4","Integer",IF(G60="int8","Integer",IF(G60="bigint","Long",IF(G60="bigserial","Long",IF(G60="timestamp","Date",IF(G60="Date","Date",G60)))))))))))&amp;" "&amp;LOWER(F60)&amp;";"</f>
-        <v>//包含套数
-private Integer num_set;</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M60" t="str">
+        <f t="shared" si="2"/>
+        <v>numSet</v>
+      </c>
+      <c r="N60" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**包含套数**/
+private Integer numSet;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="28.5">
       <c r="A61" s="4" t="s">
         <v>13</v>
       </c>
@@ -3601,7 +4052,7 @@
       <c r="D61" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="4" t="n">
+      <c r="E61" s="4">
         <v>6</v>
       </c>
       <c r="F61" s="4" t="s">
@@ -3615,22 +4066,25 @@
       <c r="J61" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="K61" s="0" t="str">
-        <f aca="false">F61&amp;" "&amp;G61&amp;IF(H61&lt;&gt;"","("&amp;H61&amp;") "&amp;I61,"")&amp;","</f>
+      <c r="K61" t="str">
+        <f t="shared" si="4"/>
         <v>create_time date,</v>
       </c>
-      <c r="L61" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C61&amp;"."&amp;F61&amp;" is '"&amp;J61&amp;"';"</f>
+      <c r="L61" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column combo_info.create_time is '创建日期';</v>
       </c>
-      <c r="M61" s="0" t="str">
-        <f aca="false">"//"&amp;J61&amp;"
-private "&amp;IF(G61="varchar2","String",IF(G61="varchar","String",IF(G61="number","Double",IF(G61="float8","Double",IF(G61="int2","Integer",IF(G61="int4","Integer",IF(G61="int8","Integer",IF(G61="bigint","Long",IF(G61="bigserial","Long",IF(G61="timestamp","Date",IF(G61="Date","Date",G61)))))))))))&amp;" "&amp;LOWER(F61)&amp;";"</f>
-        <v>//创建日期
-private Date create_time;</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M61" t="str">
+        <f t="shared" si="2"/>
+        <v>createTime</v>
+      </c>
+      <c r="N61" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**创建日期**/
+private Date createTime;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="28.5">
       <c r="A62" s="4" t="s">
         <v>13</v>
       </c>
@@ -3643,7 +4097,7 @@
       <c r="D62" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="4" t="n">
+      <c r="E62" s="4">
         <v>7</v>
       </c>
       <c r="F62" s="4" t="s">
@@ -3659,22 +4113,25 @@
       <c r="J62" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="K62" s="0" t="str">
-        <f aca="false">F62&amp;" "&amp;G62&amp;IF(H62&lt;&gt;"","("&amp;H62&amp;") "&amp;I62,"")&amp;","</f>
+      <c r="K62" t="str">
+        <f t="shared" si="4"/>
         <v>delete_tag int2,</v>
       </c>
-      <c r="L62" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C62&amp;"."&amp;F62&amp;" is '"&amp;J62&amp;"';"</f>
+      <c r="L62" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column combo_info.delete_tag is '删除标识';</v>
       </c>
-      <c r="M62" s="0" t="str">
-        <f aca="false">"//"&amp;J62&amp;"
-private "&amp;IF(G62="varchar2","String",IF(G62="varchar","String",IF(G62="number","Double",IF(G62="float8","Double",IF(G62="int2","Integer",IF(G62="int4","Integer",IF(G62="int8","Integer",IF(G62="bigint","Long",IF(G62="bigserial","Long",IF(G62="timestamp","Date",IF(G62="Date","Date",G62)))))))))))&amp;" "&amp;LOWER(F62)&amp;";"</f>
-        <v>//删除标识
-private Integer delete_tag;</v>
-      </c>
-    </row>
-    <row r="63" s="8" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M62" t="str">
+        <f t="shared" si="2"/>
+        <v>deleteTag</v>
+      </c>
+      <c r="N62" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**删除标识**/
+private Integer deleteTag;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="28.5">
       <c r="A63" s="4" t="s">
         <v>13</v>
       </c>
@@ -3687,7 +4144,7 @@
       <c r="D63" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E63" s="4" t="n">
+      <c r="E63" s="4">
         <v>8</v>
       </c>
       <c r="F63" s="4" t="s">
@@ -3701,22 +4158,25 @@
       <c r="J63" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K63" s="8" t="str">
-        <f aca="false">F63&amp;" "&amp;G63&amp;IF(H63&lt;&gt;"","("&amp;H63&amp;") "&amp;I63,"")&amp;","</f>
+      <c r="K63" t="str">
+        <f t="shared" si="4"/>
         <v>delete_time timestamp,</v>
       </c>
-      <c r="L63" s="8" t="str">
-        <f aca="false">"comment on column "&amp;C63&amp;"."&amp;F63&amp;" is '"&amp;J63&amp;"';"</f>
+      <c r="L63" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column combo_info.delete_time is '作废时间';</v>
       </c>
-      <c r="M63" s="8" t="str">
-        <f aca="false">"//"&amp;J63&amp;"
-private "&amp;IF(G63="varchar2","String",IF(G63="varchar","String",IF(G63="number","Double",IF(G63="float8","Double",IF(G63="int2","Integer",IF(G63="int4","Integer",IF(G63="int8","Integer",IF(G63="bigint","Long",IF(G63="bigserial","Long",IF(G63="timestamp","Date",IF(G63="Date","Date",G63)))))))))))&amp;" "&amp;LOWER(F63)&amp;";"</f>
-        <v>//作废时间
-private Date delete_time;</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M63" t="str">
+        <f t="shared" si="2"/>
+        <v>deleteTime</v>
+      </c>
+      <c r="N63" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**作废时间**/
+private Date deleteTime;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="28.5">
       <c r="A64" s="4" t="s">
         <v>13</v>
       </c>
@@ -3729,7 +4189,7 @@
       <c r="D64" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E64" s="4" t="n">
+      <c r="E64" s="4">
         <v>1</v>
       </c>
       <c r="F64" s="4" t="s">
@@ -3743,22 +4203,25 @@
       <c r="J64" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="K64" s="0" t="str">
-        <f aca="false">F64&amp;" "&amp;G64&amp;IF(H64&lt;&gt;"","("&amp;H64&amp;") "&amp;I64,"")&amp;","</f>
+      <c r="K64" t="str">
+        <f t="shared" si="4"/>
         <v>id bigserial,</v>
       </c>
-      <c r="L64" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C64&amp;"."&amp;F64&amp;" is '"&amp;J64&amp;"';"</f>
+      <c r="L64" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column order_info_detail.id is '编号';</v>
       </c>
-      <c r="M64" s="0" t="str">
-        <f aca="false">"//"&amp;J64&amp;"
-private "&amp;IF(G64="varchar2","String",IF(G64="varchar","String",IF(G64="number","Double",IF(G64="float8","Double",IF(G64="int2","Integer",IF(G64="int4","Integer",IF(G64="int8","Integer",IF(G64="bigint","Long",IF(G64="bigserial","Long",IF(G64="timestamp","Date",IF(G64="Date","Date",G64)))))))))))&amp;" "&amp;LOWER(F64)&amp;";"</f>
-        <v>//编号
+      <c r="M64" t="str">
+        <f t="shared" si="2"/>
+        <v>id</v>
+      </c>
+      <c r="N64" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**编号**/
 private Long id;</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:14" ht="28.5">
       <c r="A65" s="4" t="s">
         <v>13</v>
       </c>
@@ -3771,7 +4234,7 @@
       <c r="D65" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="4" t="n">
+      <c r="E65" s="4">
         <v>2</v>
       </c>
       <c r="F65" s="4" t="s">
@@ -3780,29 +4243,32 @@
       <c r="G65" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H65" s="4" t="n">
+      <c r="H65" s="4">
         <v>200</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K65" s="0" t="str">
-        <f aca="false">F65&amp;" "&amp;G65&amp;IF(H65&lt;&gt;"","("&amp;H65&amp;") "&amp;I65,"")&amp;","</f>
+      <c r="K65" t="str">
+        <f t="shared" si="4"/>
         <v>order_num varchar(200) ,</v>
       </c>
-      <c r="L65" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C65&amp;"."&amp;F65&amp;" is '"&amp;J65&amp;"';"</f>
+      <c r="L65" t="str">
+        <f t="shared" si="5"/>
         <v>comment on column order_info_detail.order_num is '订单编号';</v>
       </c>
-      <c r="M65" s="0" t="str">
-        <f aca="false">"//"&amp;J65&amp;"
-private "&amp;IF(G65="varchar2","String",IF(G65="varchar","String",IF(G65="number","Double",IF(G65="float8","Double",IF(G65="int2","Integer",IF(G65="int4","Integer",IF(G65="int8","Integer",IF(G65="bigint","Long",IF(G65="bigserial","Long",IF(G65="timestamp","Date",IF(G65="Date","Date",G65)))))))))))&amp;" "&amp;LOWER(F65)&amp;";"</f>
-        <v>//订单编号
-private String order_num;</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M65" t="str">
+        <f t="shared" si="2"/>
+        <v>orderNum</v>
+      </c>
+      <c r="N65" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**订单编号**/
+private String orderNum;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="28.5">
       <c r="A66" s="4" t="s">
         <v>13</v>
       </c>
@@ -3815,7 +4281,7 @@
       <c r="D66" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E66" s="4" t="n">
+      <c r="E66" s="4">
         <v>3</v>
       </c>
       <c r="F66" s="4" t="s">
@@ -3829,22 +4295,25 @@
       <c r="J66" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="K66" s="0" t="str">
-        <f aca="false">F66&amp;" "&amp;G66&amp;IF(H66&lt;&gt;"","("&amp;H66&amp;") "&amp;I66,"")&amp;","</f>
+      <c r="K66" t="str">
+        <f t="shared" ref="K66:K80" si="6">F66&amp;" "&amp;G66&amp;IF(H66&lt;&gt;"","("&amp;H66&amp;") "&amp;I66,"")&amp;","</f>
         <v>combo_id bigint,</v>
       </c>
-      <c r="L66" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C66&amp;"."&amp;F66&amp;" is '"&amp;J66&amp;"';"</f>
+      <c r="L66" t="str">
+        <f t="shared" ref="L66:L80" si="7">"comment on column "&amp;C66&amp;"."&amp;F66&amp;" is '"&amp;J66&amp;"';"</f>
         <v>comment on column order_info_detail.combo_id is '套餐编码';</v>
       </c>
-      <c r="M66" s="6" t="str">
-        <f aca="false">"//"&amp;J66&amp;"
-private "&amp;IF(G66="varchar2","String",IF(G66="varchar","String",IF(G66="number","Double",IF(G66="float8","Double",IF(G66="int2","Integer",IF(G66="int4","Integer",IF(G66="int8","Integer",IF(G66="bigint","Long",IF(G66="bigserial","Long",IF(G66="timestamp","Date",IF(G66="Date","Date",G66)))))))))))&amp;" "&amp;LOWER(F66)&amp;";"</f>
-        <v>//套餐编码
-private Long combo_id;</v>
-      </c>
-    </row>
-    <row r="67" s="8" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M66" t="str">
+        <f t="shared" si="2"/>
+        <v>comboId</v>
+      </c>
+      <c r="N66" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>/**套餐编码**/
+private Long comboId;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="28.5">
       <c r="A67" s="4" t="s">
         <v>13</v>
       </c>
@@ -3857,7 +4326,7 @@
       <c r="D67" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E67" s="4" t="n">
+      <c r="E67" s="4">
         <v>4</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -3871,22 +4340,26 @@
       <c r="J67" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="K67" s="0" t="str">
-        <f aca="false">F67&amp;" "&amp;G67&amp;IF(H67&lt;&gt;"","("&amp;H67&amp;") "&amp;I67,"")&amp;","</f>
+      <c r="K67" t="str">
+        <f t="shared" si="6"/>
         <v>price float8,</v>
       </c>
-      <c r="L67" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C67&amp;"."&amp;F67&amp;" is '"&amp;J67&amp;"';"</f>
+      <c r="L67" t="str">
+        <f t="shared" si="7"/>
         <v>comment on column order_info_detail.price is '套餐价格';</v>
       </c>
-      <c r="M67" s="6" t="str">
-        <f aca="false">"//"&amp;J67&amp;"
-private "&amp;IF(G67="varchar2","String",IF(G67="varchar","String",IF(G67="number","Double",IF(G67="float8","Double",IF(G67="int2","Integer",IF(G67="int4","Integer",IF(G67="int8","Integer",IF(G67="bigint","Long",IF(G67="bigserial","Long",IF(G67="timestamp","Date",IF(G67="Date","Date",G67)))))))))))&amp;" "&amp;LOWER(F67)&amp;";"</f>
-        <v>//套餐价格
+      <c r="M67" t="str">
+        <f t="shared" ref="M67:M80" si="8">LEFT(F67,1)&amp;MID(SUBSTITUTE(PROPER(F67),"_",""),2,100)</f>
+        <v>price</v>
+      </c>
+      <c r="N67" s="6" t="str">
+        <f t="shared" ref="N67:N80" si="9">"/**"&amp;J67&amp;"**/
+private "&amp;IF(G67="varchar2","String",IF(G67="varchar","String",IF(G67="number","Double",IF(G67="float8","Double",IF(G67="int2","Integer",IF(G67="int4","Integer",IF(G67="int8","Integer",IF(G67="bigint","Long",IF(G67="bigserial","Long",IF(G67="timestamp","Date",IF(G67="Date","Date",G67)))))))))))&amp;" "&amp;M67&amp;";"</f>
+        <v>/**套餐价格**/
 private Double price;</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:14" ht="28.5">
       <c r="A68" s="4" t="s">
         <v>13</v>
       </c>
@@ -3899,7 +4372,7 @@
       <c r="D68" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E68" s="4" t="n">
+      <c r="E68" s="4">
         <v>5</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -3913,22 +4386,25 @@
       <c r="J68" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="K68" s="0" t="str">
-        <f aca="false">F68&amp;" "&amp;G68&amp;IF(H68&lt;&gt;"","("&amp;H68&amp;") "&amp;I68,"")&amp;","</f>
+      <c r="K68" t="str">
+        <f t="shared" si="6"/>
         <v>off_price float8,</v>
       </c>
-      <c r="L68" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C68&amp;"."&amp;F68&amp;" is '"&amp;J68&amp;"';"</f>
+      <c r="L68" t="str">
+        <f t="shared" si="7"/>
         <v>comment on column order_info_detail.off_price is '优惠金额';</v>
       </c>
-      <c r="M68" s="0" t="str">
-        <f aca="false">"//"&amp;J68&amp;"
-private "&amp;IF(G68="varchar2","String",IF(G68="varchar","String",IF(G68="number","Double",IF(G68="float8","Double",IF(G68="int2","Integer",IF(G68="int4","Integer",IF(G68="int8","Integer",IF(G68="bigint","Long",IF(G68="bigserial","Long",IF(G68="timestamp","Date",IF(G68="Date","Date",G68)))))))))))&amp;" "&amp;LOWER(F68)&amp;";"</f>
-        <v>//优惠金额
-private Double off_price;</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M68" t="str">
+        <f t="shared" si="8"/>
+        <v>offPrice</v>
+      </c>
+      <c r="N68" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>/**优惠金额**/
+private Double offPrice;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="28.5">
       <c r="A69" s="4" t="s">
         <v>13</v>
       </c>
@@ -3941,7 +4417,7 @@
       <c r="D69" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E69" s="4" t="n">
+      <c r="E69" s="4">
         <v>6</v>
       </c>
       <c r="F69" s="4" t="s">
@@ -3955,22 +4431,25 @@
       <c r="J69" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="K69" s="0" t="str">
-        <f aca="false">F69&amp;" "&amp;G69&amp;IF(H69&lt;&gt;"","("&amp;H69&amp;") "&amp;I69,"")&amp;","</f>
+      <c r="K69" t="str">
+        <f t="shared" si="6"/>
         <v>amount int8,</v>
       </c>
-      <c r="L69" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C69&amp;"."&amp;F69&amp;" is '"&amp;J69&amp;"';"</f>
+      <c r="L69" t="str">
+        <f t="shared" si="7"/>
         <v>comment on column order_info_detail.amount is '数量';</v>
       </c>
-      <c r="M69" s="0" t="str">
-        <f aca="false">"//"&amp;J69&amp;"
-private "&amp;IF(G69="varchar2","String",IF(G69="varchar","String",IF(G69="number","Double",IF(G69="float8","Double",IF(G69="int2","Integer",IF(G69="int4","Integer",IF(G69="int8","Integer",IF(G69="bigint","Long",IF(G69="bigserial","Long",IF(G69="timestamp","Date",IF(G69="Date","Date",G69)))))))))))&amp;" "&amp;LOWER(F69)&amp;";"</f>
-        <v>//数量
+      <c r="M69" t="str">
+        <f t="shared" si="8"/>
+        <v>amount</v>
+      </c>
+      <c r="N69" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>/**数量**/
 private Integer amount;</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:14" ht="28.5">
       <c r="A70" s="4" t="s">
         <v>13</v>
       </c>
@@ -3983,7 +4462,7 @@
       <c r="D70" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E70" s="4" t="n">
+      <c r="E70" s="4">
         <v>7</v>
       </c>
       <c r="F70" s="4" t="s">
@@ -3997,22 +4476,25 @@
       <c r="J70" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="K70" s="0" t="str">
-        <f aca="false">F70&amp;" "&amp;G70&amp;IF(H70&lt;&gt;"","("&amp;H70&amp;") "&amp;I70,"")&amp;","</f>
+      <c r="K70" t="str">
+        <f t="shared" si="6"/>
         <v>create_time date,</v>
       </c>
-      <c r="L70" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C70&amp;"."&amp;F70&amp;" is '"&amp;J70&amp;"';"</f>
+      <c r="L70" t="str">
+        <f t="shared" si="7"/>
         <v>comment on column order_info_detail.create_time is '创建日期';</v>
       </c>
-      <c r="M70" s="0" t="str">
-        <f aca="false">"//"&amp;J70&amp;"
-private "&amp;IF(G70="varchar2","String",IF(G70="varchar","String",IF(G70="number","Double",IF(G70="float8","Double",IF(G70="int2","Integer",IF(G70="int4","Integer",IF(G70="int8","Integer",IF(G70="bigint","Long",IF(G70="bigserial","Long",IF(G70="timestamp","Date",IF(G70="Date","Date",G70)))))))))))&amp;" "&amp;LOWER(F70)&amp;";"</f>
-        <v>//创建日期
-private Date create_time;</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M70" t="str">
+        <f t="shared" si="8"/>
+        <v>createTime</v>
+      </c>
+      <c r="N70" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>/**创建日期**/
+private Date createTime;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="28.5">
       <c r="A71" s="4" t="s">
         <v>13</v>
       </c>
@@ -4022,10 +4504,10 @@
       <c r="C71" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E71" s="4" t="n">
+      <c r="E71" s="4">
         <v>1</v>
       </c>
       <c r="F71" s="4" t="s">
@@ -4039,22 +4521,25 @@
       <c r="J71" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="K71" s="0" t="str">
-        <f aca="false">F71&amp;" "&amp;G71&amp;IF(H71&lt;&gt;"","("&amp;H71&amp;") "&amp;I71,"")&amp;","</f>
+      <c r="K71" t="str">
+        <f t="shared" si="6"/>
         <v>id bigserial,</v>
       </c>
-      <c r="L71" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C71&amp;"."&amp;F71&amp;" is '"&amp;J71&amp;"';"</f>
+      <c r="L71" t="str">
+        <f t="shared" si="7"/>
         <v>comment on column appointment_info.id is '编号';</v>
       </c>
-      <c r="M71" s="0" t="str">
-        <f aca="false">"//"&amp;J71&amp;"
-private "&amp;IF(G71="varchar2","String",IF(G71="varchar","String",IF(G71="number","Double",IF(G71="float8","Double",IF(G71="int2","Integer",IF(G71="int4","Integer",IF(G71="int8","Integer",IF(G71="bigint","Long",IF(G71="bigserial","Long",IF(G71="timestamp","Date",IF(G71="Date","Date",G71)))))))))))&amp;" "&amp;LOWER(F71)&amp;";"</f>
-        <v>//编号
+      <c r="M71" t="str">
+        <f t="shared" si="8"/>
+        <v>id</v>
+      </c>
+      <c r="N71" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>/**编号**/
 private Long id;</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:14" ht="28.5">
       <c r="A72" s="4" t="s">
         <v>13</v>
       </c>
@@ -4064,10 +4549,10 @@
       <c r="C72" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E72" s="4" t="n">
+      <c r="E72" s="4">
         <v>2</v>
       </c>
       <c r="F72" s="4" t="s">
@@ -4076,29 +4561,32 @@
       <c r="G72" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H72" s="4" t="n">
+      <c r="H72" s="4">
         <v>200</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K72" s="0" t="str">
-        <f aca="false">F72&amp;" "&amp;G72&amp;IF(H72&lt;&gt;"","("&amp;H72&amp;") "&amp;I72,"")&amp;","</f>
+      <c r="K72" t="str">
+        <f t="shared" si="6"/>
         <v>order_num varchar(200) ,</v>
       </c>
-      <c r="L72" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C72&amp;"."&amp;F72&amp;" is '"&amp;J72&amp;"';"</f>
+      <c r="L72" t="str">
+        <f t="shared" si="7"/>
         <v>comment on column appointment_info.order_num is '订单编号';</v>
       </c>
-      <c r="M72" s="0" t="str">
-        <f aca="false">"//"&amp;J72&amp;"
-private "&amp;IF(G72="varchar2","String",IF(G72="varchar","String",IF(G72="number","Double",IF(G72="float8","Double",IF(G72="int2","Integer",IF(G72="int4","Integer",IF(G72="int8","Integer",IF(G72="bigint","Long",IF(G72="bigserial","Long",IF(G72="timestamp","Date",IF(G72="Date","Date",G72)))))))))))&amp;" "&amp;LOWER(F72)&amp;";"</f>
-        <v>//订单编号
-private String order_num;</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M72" t="str">
+        <f t="shared" si="8"/>
+        <v>orderNum</v>
+      </c>
+      <c r="N72" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>/**订单编号**/
+private String orderNum;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="28.5">
       <c r="A73" s="4" t="s">
         <v>13</v>
       </c>
@@ -4108,10 +4596,10 @@
       <c r="C73" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E73" s="4" t="n">
+      <c r="E73" s="4">
         <v>3</v>
       </c>
       <c r="F73" s="4" t="s">
@@ -4125,22 +4613,25 @@
       <c r="J73" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="K73" s="0" t="str">
-        <f aca="false">F73&amp;" "&amp;G73&amp;IF(H73&lt;&gt;"","("&amp;H73&amp;") "&amp;I73,"")&amp;","</f>
+      <c r="K73" t="str">
+        <f t="shared" si="6"/>
         <v>combo_id bigint,</v>
       </c>
-      <c r="L73" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C73&amp;"."&amp;F73&amp;" is '"&amp;J73&amp;"';"</f>
+      <c r="L73" t="str">
+        <f t="shared" si="7"/>
         <v>comment on column appointment_info.combo_id is '套餐编码';</v>
       </c>
-      <c r="M73" s="0" t="str">
-        <f aca="false">"//"&amp;J73&amp;"
-private "&amp;IF(G73="varchar2","String",IF(G73="varchar","String",IF(G73="number","Double",IF(G73="float8","Double",IF(G73="int2","Integer",IF(G73="int4","Integer",IF(G73="int8","Integer",IF(G73="bigint","Long",IF(G73="bigserial","Long",IF(G73="timestamp","Date",IF(G73="Date","Date",G73)))))))))))&amp;" "&amp;LOWER(F73)&amp;";"</f>
-        <v>//套餐编码
-private Long combo_id;</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M73" t="str">
+        <f t="shared" si="8"/>
+        <v>comboId</v>
+      </c>
+      <c r="N73" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>/**套餐编码**/
+private Long comboId;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="28.5">
       <c r="A74" s="4" t="s">
         <v>13</v>
       </c>
@@ -4150,10 +4641,10 @@
       <c r="C74" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E74" s="4" t="n">
+      <c r="E74" s="4">
         <v>4</v>
       </c>
       <c r="F74" s="4" t="s">
@@ -4167,22 +4658,25 @@
       <c r="J74" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="K74" s="0" t="str">
-        <f aca="false">F74&amp;" "&amp;G74&amp;IF(H74&lt;&gt;"","("&amp;H74&amp;") "&amp;I74,"")&amp;","</f>
+      <c r="K74" t="str">
+        <f t="shared" si="6"/>
         <v>order_info_detail_id bigint,</v>
       </c>
-      <c r="L74" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C74&amp;"."&amp;F74&amp;" is '"&amp;J74&amp;"';"</f>
+      <c r="L74" t="str">
+        <f t="shared" si="7"/>
         <v>comment on column appointment_info.order_info_detail_id is '订单套餐明细编码';</v>
       </c>
-      <c r="M74" s="0" t="str">
-        <f aca="false">"//"&amp;J74&amp;"
-private "&amp;IF(G74="varchar2","String",IF(G74="varchar","String",IF(G74="number","Double",IF(G74="float8","Double",IF(G74="int2","Integer",IF(G74="int4","Integer",IF(G74="int8","Integer",IF(G74="bigint","Long",IF(G74="bigserial","Long",IF(G74="timestamp","Date",IF(G74="Date","Date",G74)))))))))))&amp;" "&amp;LOWER(F74)&amp;";"</f>
-        <v>//订单套餐明细编码
-private Long order_info_detail_id;</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M74" t="str">
+        <f t="shared" si="8"/>
+        <v>orderInfoDetailId</v>
+      </c>
+      <c r="N74" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>/**订单套餐明细编码**/
+private Long orderInfoDetailId;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="29.25">
       <c r="A75" s="4" t="s">
         <v>13</v>
       </c>
@@ -4192,10 +4686,10 @@
       <c r="C75" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E75" s="4" t="n">
+      <c r="E75" s="4">
         <v>5</v>
       </c>
       <c r="F75" s="4" t="s">
@@ -4206,111 +4700,56 @@
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="10" t="s">
+      <c r="J75" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="K75" s="0" t="str">
-        <f aca="false">F75&amp;" "&amp;G75&amp;IF(H75&lt;&gt;"","("&amp;H75&amp;") "&amp;I75,"")&amp;","</f>
+      <c r="K75" t="str">
+        <f t="shared" si="6"/>
         <v>pic_tag int4,</v>
       </c>
-      <c r="L75" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C75&amp;"."&amp;F75&amp;" is '"&amp;J75&amp;"';"</f>
+      <c r="L75" t="str">
+        <f t="shared" si="7"/>
         <v>comment on column appointment_info.pic_tag is '返图标记：0未拍摄，1已拍摄，2.已返原图，3.已返精修';</v>
       </c>
-      <c r="M75" s="0" t="str">
-        <f aca="false">"//"&amp;J75&amp;"
-private "&amp;IF(G75="varchar2","String",IF(G75="varchar","String",IF(G75="number","Double",IF(G75="float8","Double",IF(G75="int2","Integer",IF(G75="int4","Integer",IF(G75="int8","Integer",IF(G75="bigint","Long",IF(G75="bigserial","Long",IF(G75="timestamp","Date",IF(G75="Date","Date",G75)))))))))))&amp;" "&amp;LOWER(F75)&amp;";"</f>
-        <v>//返图标记：0未拍摄，1已拍摄，2.已返原图，3.已返精修
-private Integer pic_tag;</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E76" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="4" t="n">
-        <v>255</v>
-      </c>
+      <c r="M75" t="str">
+        <f t="shared" si="8"/>
+        <v>picTag</v>
+      </c>
+      <c r="N75" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>/**返图标记：0未拍摄，1已拍摄，2.已返原图，3.已返精修**/
+private Integer picTag;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
       <c r="I76" s="5"/>
-      <c r="J76" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K76" s="0" t="str">
-        <f aca="false">F76&amp;" "&amp;G76&amp;IF(H76&lt;&gt;"","("&amp;H76&amp;") "&amp;I76,"")&amp;","</f>
-        <v>pic_url varchar(255) ,</v>
-      </c>
-      <c r="L76" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C76&amp;"."&amp;F76&amp;" is '"&amp;J76&amp;"';"</f>
-        <v>comment on column appointment_info.pic_url is '本地图片路径备注';</v>
-      </c>
-      <c r="M76" s="0" t="str">
-        <f aca="false">"//"&amp;J76&amp;"
-private "&amp;IF(G76="varchar2","String",IF(G76="varchar","String",IF(G76="number","Double",IF(G76="float8","Double",IF(G76="int2","Integer",IF(G76="int4","Integer",IF(G76="int8","Integer",IF(G76="bigint","Long",IF(G76="bigserial","Long",IF(G76="timestamp","Date",IF(G76="Date","Date",G76)))))))))))&amp;" "&amp;LOWER(F76)&amp;";"</f>
-        <v>//本地图片路径备注
-private String pic_url;</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E77" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="J76" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="N76" s="6"/>
+    </row>
+    <row r="77" spans="1:14" ht="15">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K77" s="0" t="str">
-        <f aca="false">F77&amp;" "&amp;G77&amp;IF(H77&lt;&gt;"","("&amp;H77&amp;") "&amp;I77,"")&amp;","</f>
-        <v>appointment_time timestamp,</v>
-      </c>
-      <c r="L77" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C77&amp;"."&amp;F77&amp;" is '"&amp;J77&amp;"';"</f>
-        <v>comment on column appointment_info.appointment_time is '预约拍照时间';</v>
-      </c>
-      <c r="M77" s="0" t="str">
-        <f aca="false">"//"&amp;J77&amp;"
-private "&amp;IF(G77="varchar2","String",IF(G77="varchar","String",IF(G77="number","Double",IF(G77="float8","Double",IF(G77="int2","Integer",IF(G77="int4","Integer",IF(G77="int8","Integer",IF(G77="bigint","Long",IF(G77="bigserial","Long",IF(G77="timestamp","Date",IF(G77="Date","Date",G77)))))))))))&amp;" "&amp;LOWER(F77)&amp;";"</f>
-        <v>//预约拍照时间
-private Date appointment_time;</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I77" s="5"/>
+      <c r="J77" s="8"/>
+      <c r="N77" s="6"/>
+    </row>
+    <row r="78" spans="1:14" ht="28.5">
       <c r="A78" s="4" t="s">
         <v>13</v>
       </c>
@@ -4320,63 +4759,154 @@
       <c r="C78" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E78" s="4" t="n">
-        <v>8</v>
+      <c r="E78" s="4">
+        <v>6</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="4">
+        <v>255</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="6"/>
+        <v>pic_url varchar(255) ,</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="7"/>
+        <v>comment on column appointment_info.pic_url is '本地图片路径备注';</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="8"/>
+        <v>picUrl</v>
+      </c>
+      <c r="N78" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>/**本地图片路径备注**/
+private String picUrl;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="28.5">
+      <c r="A79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="4">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>50</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="K78" s="0" t="str">
-        <f aca="false">F78&amp;" "&amp;G78&amp;IF(H78&lt;&gt;"","("&amp;H78&amp;") "&amp;I78,"")&amp;","</f>
-        <v>update_time timestamp,</v>
-      </c>
-      <c r="L78" s="0" t="str">
-        <f aca="false">"comment on column "&amp;C78&amp;"."&amp;F78&amp;" is '"&amp;J78&amp;"';"</f>
-        <v>comment on column appointment_info.update_time is '数据更新时间';</v>
-      </c>
-      <c r="M78" s="0" t="str">
-        <f aca="false">"//"&amp;J78&amp;"
-private "&amp;IF(G78="varchar2","String",IF(G78="varchar","String",IF(G78="number","Double",IF(G78="float8","Double",IF(G78="int2","Integer",IF(G78="int4","Integer",IF(G78="int8","Integer",IF(G78="bigint","Long",IF(G78="bigserial","Long",IF(G78="timestamp","Date",IF(G78="Date","Date",G78)))))))))))&amp;" "&amp;LOWER(F78)&amp;";"</f>
-        <v>//数据更新时间
-private Date update_time;</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
+      <c r="J79" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="6"/>
+        <v>appointment_time timestamp,</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="7"/>
+        <v>comment on column appointment_info.appointment_time is '预约时间';</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="8"/>
+        <v>appointmentTime</v>
+      </c>
+      <c r="N79" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>/**预约时间**/
+private Date appointmentTime;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="28.5">
+      <c r="A80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" s="4">
+        <v>8</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="6"/>
+        <v>update_time timestamp,</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="7"/>
+        <v>comment on column appointment_info.update_time is '数据更新时间';</v>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" si="8"/>
+        <v>updateTime</v>
+      </c>
+      <c r="N80" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>/**数据更新时间**/
+private Date updateTime;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G1:G1079" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1081" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"char,varchar2,varchar,nchar,bigserial,long,number,float4,float8,double,int2,int4,int8,bigint,date,timestamp,clob,blob,bfile,row,long raw,long raw,rowid"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>